--- a/500all/speech_level/speeches_CHRG-114hhrg97821.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97821.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="135">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400379</t>
   </si>
   <si>
-    <t>Adam Smith</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Smith. Thank you, Mr. Chairman. I have a longer statement, which I will just submit for the record. But I think this hearing is perfectly appropriate to really think broadly about what is our strategy. And I think it is not just against ISIS, but all of the groups affiliated with that ideology, Al Qaeda, Al-Shabaab, Boko Haram, Ansar al-Sharia in Libya. This is an ideology that we need to figure out how to defeat. For a long time it was Al Qaeda. Gosh, 10 years ago, no such thing as Al Qaeda in Iraq or ISIS. Now they are the great threat. And I agree with the chairman, I think this is a very significant threat, precisely because they have the same willingness that Osama bin Laden had to reach out and try to attack Western targets wherever they can find them. This is in our vital national security interests to figure out how best to contain this. But I think the lesson that has been learned is the ability of the United States to go militarily into a Muslim country and pacify it, if you will, and force it into a different direction. And Ambassador Crocker is very familiar with those struggles and those difficulties.    The issue isn't could we, in the short term, militarily defeat ISIS? Certainly. You know, we could, with our Western allies, have a force that could, you know, destroy them in the short term. But in the long term, do we create more of them? Do we then create a situation where we have even more of the Muslim world against us? How do we thread that needle? And I think that is the key. And what I want to hear most from our witnesses, how do we find allies in the Muslim, Sunni Muslim world in particular, since these groups are Sunni, and how do we assist them in defeating groups like ISIS and Al Qaeda, and convincing their populations that these are groups not to be supported and not to be joined?    How, in essence, does the Muslim world, do places like Iraq and Syria, offer a better alternative going forward? And a big part of this is this part of the world has a massive youth bulge, huge youth population, and almost no jobs. Nothing for these people to do. That makes these sort of ideologies even more attractive.    So a comprehensive solution is needed. I think we have two great witnesses here to offer us that perspective. And I look forward to their testimony. I thank the chairman for the hearing. With that, I yield back.    [The prepared statement of Mr. Smith can be found in the Appendix on page 41.]    The Chairman. I thank the gentleman. Let me, again, express our appreciation to both our witnesses for being here. John McLaughlin, as members know, was the deputy director and then the acting director of the CIA [Central Intelligence Agency] during the crucial beginning time of this fight against terrorists, shortly after 9/11. He now teaches at Johns Hopkins School for Advanced International Studies.    Ryan Crocker has been a Foreign Service Officer for 30-something years, ambassador to a whole variety of countries, including Iraq and Syria, and is now the dean at the George Bush School down in College Station. So we are very grateful to both of you for being here. I think the ranking member is exactly right, we are looking for the broader strategic perspective on what we are facing.    Without objection, your full written statements will be made part of the record. And I will turn to you first, Mr. McLaughlin, for any comments you would like to make.  STATEMENT OF JOHN E. McLAUGHLIN, FORMER ACTING DIRECTOR OF </t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>McLaughlin</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. McLaughlin. Chairman Thornberry and members of the committee, I appreciate the opportunity to share my views today. I always enjoyed visiting this committee back when I worked at CIA for 30 years. And as a U.S. Army veteran with service in Vietnam, I understand the importance of the work you do. The United States confronts, in Syria and Iraq, the most complex set of national security problems I have ever seen, in a way, unprecedented even for the Middle East. At least six region-wide conflicts converge in these two countries: Persian versus Arab, Sunni versus Shia, modernizers versus traditionalists, terrorists versus regimes, terrorists versus terrorists, and great powers versus great powers. You know, at the center of this is the most vicious and capable terrorist group I have ever seen.    My last 4 years in government, as the chairman alluded, were focused on the battle against Al Qaeda in the post-9/11 period. The battle against ISIL [Islamic State of Iraq and the Levant] will be harder because ISIL has at least six strengths that Al Qaeda never had. First, it has an ambitious strategy focused on establishing concentric circles of influence and operational activity well beyond its Syrian base. Second, it possesses territory extensive enough to credibly claim a caliphate. Third, it has money in the hundreds of millions of dollars that buys expertise, loyalty, weapons, training, and influence. Fourth, it has barely impeded access to the West by virtue of the 4,500 Western passport holders in its ranks. Fifth, a narrative far more powerful than Al Qaeda's, promising jobs, families, fellowship, and power to people to whom it appeals. Its recruiting emphasizes these things, not the brutality we see on television.    Finally, unlike Al Qaeda, it has won grudging acquiescence in many areas it controls by providing rudimentary public services. So any effort to form a counter-ISIL strategy and settle the Syrian conflict has to begin with an appreciation of the realities we face.    First, time matters. Timetables slip for offensives to reclaim Mosul or Ramadi or to train fighters. Meanwhile, 1,000 fighters a month join ISIL. Its roots grow deeper. Second, the interests of major powers have to be reconciled. A Syrian settlement is unlikely without some Russian, Iranian, and perhaps Saudi acquiescence or cooperation. Third, progress will be impossible without meeting the grievances of abused and alienated Sunni populations, which constitutes 70 percent of Syria, about 20 percent of Iraq.    Fourth, substantial territory must be reclaimed from ISIL to erode the image of invulnerability and its claim to a caliphate. And fifth, air power is important, but probably won't be enough.    So in light of those realities, what are the elements of a successful strategy? First, be clear about priorities. Trying to get rid of Assad and ISIL at the same time led us into what I would call a catch-22 cul-de-sac. Hurting one invariably helps the other. Time to say destroying ISIL comes first, and we will do the necessary to achieve that. Now, in making these recommendations, I want to be clear, I don't have access to the data and the capabilities of the Joint Staff. So many of the things I am about to say here are aspirational. They would need careful planning. And I don't minimize the difficulty.    But second, we can, more robustly, arm forces that have shown success against ISIL, such as the Kurds in Syria and Iraq. Third, increase the intensity of the air campaign and the number of U.S. special operators in theater, empowering them to go forward with trusted forces to advise and assist with targeting, something we did in the early days of the Afghan war. Fourth, move, finally, to establish a safe zone in Syria for fighters and refugees, as General Petraeus has suggested, defended by coalition aircraft with U.S. advisers present, and with a warning to Assad to stay out.    Fifth, and most challenging, lead in the formation of a multinational force that could bring the air and ground components of our strategy into better balance. And finally, in the Vienna talks on the political solution for Syria currently taking place among 19 nations, seek traction on what must be the single element of consensus among them that none can see benefit in having another failed state, another Libya, if you will, in the heart of the Middle East.    Finally, let me conclude, Mr. Chairman, by saying it is impossible to overestimate the importance of vigorous engagement with Baghdad for a government more inclusive of Sunnis and all Iraqi elements. Otherwise, Iraq can neither survive as a unitary state nor field an effective fighting force. Thank you, Mr. Chairman.    [The prepared statement of Mr. McLaughlin can be found in the Appendix on page 43.]    The Chairman. Thank you, sir. Mr. Ambassador.    Ambassador Crocker. Thank you, Mr. Chairman, Ranking Member Smith, members of the committee. It is a privilege to be before you today on issues of such great consequence. It has been a very grim 3 weeks. The downing of the Russian airliner, the bombings in Beirut, the horrific attacks in Paris, make it clear to all of us the enormous threat that the Islamic State poses. These attacks come against a backdrop of chaos and violence unprecedented in the modern history of the Middle East, which I date back to the end of World War I.    Three states have failed completely: Syria, Libya, and Yemen. I would argue that Iraq is very, very close. And with the failure of states, we have seen the rise of nonstate actors, most prominently Islamic State, but also Al Qaeda, Iranian-backed Shia militias in Iraq, and a host of others. The stability of the entire region is at risk, as are some core U.S. interests, the security of our friends in the region, including Israel, the flow of oil to our allies around the world, and our own security. As we saw so tragically in Paris and in Beirut, as my friend and former wingman Dave Petraeus said, what happens in the Middle East does not stay in the Middle East.    The emergence of Islamic State and other nonstate actors has its roots in an even larger problem, the pervasive failure of governance in the region. The history of the modern Middle East is a history of failed ``isms'': colonialism, monarchism, Arab nationalism, Arab socialism, communism, authoritarianism. We can hope Islamic State's twisted form of Islamism is the next to fail, but hope is a poor policy. John McLaughlin said something very important. Islamic State gets this. They know it is not just about the bloody sword, it is about picking up the garbage. Wherever they move in, they attempt to establish services, a very brutal but predictable form of justice, and above all, to demonstrate that unlike the regimes that came before them in Syria and Iraq, they are not personally corrupt.    If you want to look for an indicator on the longevity of ISIS or Islamic State, look to how they govern in the areas they control. I say this to situate recent developments in a larger context, and to underscore how enormously complex these problems are. If there are any fixes at all, they will not be quick. There are things that we can and should do, I believe, short of deploying ground forces. I agree with John McLaughlin, we need to ramp up our air campaign significantly, to actually degrade Islamic State.    We need to go after their resources. We need to go after their money, as we did with Al Qaeda in Iraq when I was there. The targeting of their oil infrastructure, I think, is an important step in this direction. I have argued for some time that we need to establish no-fly zones, covering safe zones, as John McLaughlin and Dave Petraeus have both said. This is important as a humanitarian step to stop the wholesale slaughter by the Assad regime of Syria's own citizens. It is also important politically at two levels. First, it will weaken the Assad regime. It will not bring it down, but it will weaken it. And it might cause Assad and his backers, Syria and Russia--I am sorry, Iran and Russia, to recalculate and perhaps move them toward a negotiating posture that would actually make the only solution that is possible come into focus, which is a political settlement.    The second point for behind a no-fly zone is it would be a signal to the region, particularly to Syria's Sunnis, that all the bombs are not falling on Sunni heads, even if they are ISIS. So this is going to have to be a very carefully calculated process. We have got to fight a Sunni group that is fighting us. We also have to signal that we understand and are taking steps to protect a Sunni population from a regime that is killing so many of them.    Implicit in this is my belief that Russia and the Iranians are absolutely not our allies. Any perception of U.S. association with Russia or Iran in a fight against Islamic State is going to turn the Sunni world in Syria and outside of it even further against us. As John McLaughlin says, there is a broader conflict here, hot and somewhat a cold war. Iran and Saudi Arabia are the two principal protagonists: The Persians, the Shia; the Arabs and the Sunnis. Russia and Iran are squarely on one side of that divide. We have to be careful we are not perceived as joining them there.    I have argued for a substantial increase in Syrian refugee admission after thorough vetting. This blunts the Islamic State narrative that we are the enemies of Arabs and Muslims, and it increases our leverage with others who can do more, either on resettlement or financially. And it is a way, Congressman Smith, that I believe we can start to pull Arab and Muslim states more toward us, to have that serious conversation we so badly need to have about what the future of the area is as we look ahead.    A couple of other points. John Allen, one of the greatest officers, in my view, ever to wear a military uniform, is stepping down as our envoy to the anti-ISIS coalition. I would urge that the next envoy be a Presidential envoy, not an envoy of the Secretary of State. If we want to say that we are serious about this, the weight of the White House needs to be behind our point person in this struggle. Dave Petraeus and I have argued that there are other steps that we can take. Move our military headquarters from Kuwait to Baghdad. If we are fighting a war, we need to be on the battlefield. And in terms of civil-military cooperation, as I saw with Dave Petraeus, Ray Odierno, and John Allen, when my military counterpart was just across the hall, it certainly made the necessary unity of effort and objective that much easier.    Mr. Chairman, the center of gravity for Islamic State is in Iraq. That is where it emerged, and that is where its key leaders are from. It grew in the sectarian canyons that were created as Iraqi Sunnis were increasingly alienated from the sectarian Shia government influenced by Iran. So John McLaughlin and I would, I think, agree completely, the primary focus of our efforts has to be political, and it has to be getting at some of these root issues of a sense of disenfranchisement and isolation of Sunnis within their own states. U.S. reengagement, at a sustained and high level, can make a difference in Iraq. I learned through two long hard years that different Iraqi factions cannot compromise among each other. They simply cannot because of the legacy of literal blood between them.    But what they can do is give us something that we can then take to another faction and leader and start to put together transactions that they all want, or many of them want, that they can't do on their own. We are the indispensable actor. We played that role during my time in Iraq, 2007 to 2009. I urge that we play it again. I am calling, therefore, not for the deployment of the 101st Airborne, but for the deployment of the Secretary of State to go out to Baghdad and to sit there for a week or 10 days, banging heads together, seeing what compromises can be forged. The Iranians are doing it all the time. We need to do it as well.    So U.S. leadership cannot solve the problems of the Middle East or anything close to it, but it can make a difference. Most crucially, it can make a difference in preserving Iraq and Syria as unitary states. I know this is an issue of concern to this committee. It is my view that de facto partitioning favors only Islamic State and Iran and its proxies. A division into a Kurdistan, a jihadistan controlled by Islamic State, and a Shiastan dominated by Iran in Iraq may be to the interests of those parties; it is not to the U.S. interests. Thank you, Mr. Chairman.    [The prepared statement of Ambassador Crocker can be found in the Appendix on page 54.]    The Chairman. Thank you. Lots of interesting comments. I would like to follow up, but I will try to restrain myself to just a couple questions. I think everybody acknowledges that the military alone cannot solve the problem of Iraq, Syria, or ISIS. But I would appreciate it if each of you could briefly comment on the role you think military action could and should play. Mr. McLaughlin mentioned that time slippage is a factor. When we say we are going to do something, we don't take the town--or the town is not taken, then that reduces credibility. I know Dr. Kissinger, among others, have argued that ineffectual military action actually helps ISIS, because they are seen to withstand bombing, or whatever it is that we do, and it strengthens their prestige. So could each of you briefly comment on the role the military action, not just by us, but military action should play in this conflict?</t>
   </si>
   <si>
@@ -94,9 +88,6 @@
     <t>400137</t>
   </si>
   <si>
-    <t>J. Randy Forbes</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Forbes. Mr. Chairman, thank you for holding the hearing. Gentlemen, thank you for your service to our country and for being willing to help us today. The two phrases that I picked out that you indicated, one was that the U.S. was an indispensable actor, if I understood that correctly. And the second one was that Iraq was the center of gravity for ISIS. As we look at the realization that a military component cannot, in and of itself, settle this problem, we all know, and I think all of us have always known you need the political and the economic and diplomatic. But you have also indicated that you cannot settle it without a significant military component. So that we can make sure we have learned from our mistakes and don't commit them going forward, what was the impact of not having a significant military component in Iraq in terms of allowing the strengthening of ISIS?    Ambassador Crocker. An important question, Congressman. In 2011, of course, we withdrew all of our military forces from Iraq. But in my view, that was not the most significant withdrawal. Really in 2011, we also pulled back from serious, sustained political engagement with Iraqi political leaders. You can argue we shouldn't have to do this, shouldn't be in the middle of somebody else's internal affairs, but it is a hard truth that the Iraqi political system will not function in any positive manner unless there is someone in the middle between and among the different factions.    So it wasn't the withdrawal of U.S. combat power that I think set us on such a grim road from 2011 until today, so much as it was a withdrawal of U.S. political engagement. And that is why I have urged, for some time, and I am sure Secretary Kerry wonders what he ever did to me, but I would like to see him out there, backed up by the President, with a series of phone calls, not just to the prime minister, but to political leaders of every faction to try to get them to the point where they can pass, for example, national guard legislation, which has been stalled in parliament now for months. That would permit provinces to raise their own national guards, which would be paid and equipped by the central government, but much like our own National Guard system, would be under the authority of a provincial governor. That is how you get your hold force for places like Mosul and Ramadi. But it can only happen if the politics work. The politics manifestly will not work.</t>
   </si>
   <si>
@@ -112,9 +103,6 @@
     <t>400097</t>
   </si>
   <si>
-    <t>Susan A. Davis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Davis. Thank you, Mr. Chairman. And thank you both for being here. Good to see you, Mr. Ambassador. I wanted to follow up briefly with the discussion that you had earlier, because we know that the issue of refugees has also morphed into how we fight ISIS right now. And so, I wanted to--just speaking to the narrative if we were to move in a fairly strong push to push back refugees, whether it is seen as incremental by us, perhaps, but not necessarily interpreted that way elsewhere, how do you see that assisting ISIS, actually, if we were to do that?    Ambassador Crocker. It reinforces their narrative that the Islamic State is the only force that will defend the faith and defend the believers in the faith, but that the West are the successors of the Crusaders, they are fundamentally the enemies of all right-thinking Muslims. So it is in that sense that I think it can feed that narrative. It was very interesting when Angela Merkel, when she was asked this, I think in September, when she took a public position basically saying refugees, Syrian refugees are welcome in Germany.    Well, my colleagues tell me that ISIS kind of got really spun up over that, and on their social media saying it is all a plot. They don't mean it. They are just trying to lure you in so they can destroy you later once you have surrendered yourself to this Crusader government. It suggests that they saw that as a threat. So, you know, that would be my thought on this. Am I laying this out there as if we do, they will? No, I can't say that for certain. I think it is, though, an issue we should take into account as we consider this very serious problem.</t>
   </si>
   <si>
@@ -136,9 +124,6 @@
     <t>400433</t>
   </si>
   <si>
-    <t>Joe Wilson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Wilson. Thank you, Mr. Chairman. And Director McLaughlin, thank you for being here. Ambassador Crocker, thank you. And I have had the extraordinary opportunity to visit, Ambassador Crocker, you in Baghdad, also in Kabul, and to visit with you around the Middle East. And every time I have been there, I have seen your great appreciation of the citizens of those countries. In particular, I was there for the earthquake relief in Muzaffarabad in Pakistan. It is very clear that you are representing American interests, but it is on behalf of the people in the countries that you were serving in. I also share very much the point that you just made, and that is, that we need to have a consistency, we need to have a long-term approach. And that is why there are two quotes that come to mind to me that the American people need to know. And that is that President Bush, on July 12, George W. Bush, on July 12, 2007, quote, ``To begin withdrawing before our commanders tell us that we are ready would be dangerous for Iraq, for the region, and for the United States. It would mean surrendering the future of Iraq to Al Qaeda. It would mean we would be risking mass killings on a horrific scale. It would mean we would allow the terrorists to establish a safe haven in Iraq to replace the one they lost in Afghanistan,'' end of quote.    And then President Barack Obama on December 14, 2011, he claimed and announced, quote, ``Everything that American troops have done in Iraq, all the fighting and all the dying, the bleeding and the building, and the training and the partnering, all of this has led to this moment of success. We are leaving behind a sovereign, stable, and self-reliant Iraq,'' end of quote.    It bothers me that there is simply not--that proves your point of a lack of consistency. In line with that, what do you see the political difficulties in Iraq of Prime Minister Abadi, what he is facing? And what role does the former Prime Minister Maliki play in progress, or lack of progress, in the country?    Ambassador Crocker. Thank you, Congressman. Yes, we recall we first met a decade ago in Islamabad, and then later in Kabul and in Baghdad. You go to only the best places.</t>
   </si>
   <si>
@@ -151,9 +136,6 @@
     <t>412254</t>
   </si>
   <si>
-    <t>Niki Tsongas</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Tsongas. Thank you, Mr. Chairman. I appreciate very much the thoughtful testimony you are both giving today. And to think over and over again you reinforce the complexity of the challenge that we face. But we all know that, bottom line, we do have a fundamental obligation in this very complex environment to best protect our country and be sure that we keep this country and our people safe. And given the dynamics of the Middle East, it does raise a lot of questions. I appreciate, Ambassador Crocker, that you have a lot of confidence in our Secretary Kerry, that in your testimony, you have suggested that he should become more engaged in Baghdad, that we as a country, through him, have an important role to play in bridging some of the divides between the different elements of the fight. But much of his attention is now turned to Russia. And I am curious as to your thoughts, both of your thoughts, really, as to whether or not Russia is changing its calculations at all given the downing of their jet and their seeming openness, at least through Mr. Lavrov, to engage in some way with Secretary Kerry, what you see as the possibilities there.    You suggested, I think, Ambassador Crocker, we have to be very wary that what they seek is something quite different. But I would be curious as to your thoughts. Is there a diplomatic option here, at least in the context of Syria, that at least might slow the outflow and the humanitarian crisis that we are witnessing?</t>
   </si>
   <si>
@@ -172,9 +154,6 @@
     <t>400411</t>
   </si>
   <si>
-    <t>Michael R. Turner</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Turner. Mr. McLaughlin, Ambassador Crocker, thank you for being here.    Ambassador Crocker, I appreciated your briefings that I, too, received in Iraq when you were there, and I appreciated your dedication. Your written statement is incredibly helpful. I mean, there are three things that I think are points that need to be emphasized: And one is that when you left Iraq in 2009, that you could never have imagined how it looks today, even in your worst nightmares; and two, you state further on in that paragraph, on page 2, ``Withdrawal of our forces and a virtual end to sustained political engagement in Iraq after 2010 did not end the war. It simply left the field to our enemies.''    And then you end that paragraph with, ``This is an unacceptable threat to the United States national security.'' I think that is why everyone is so concerned is because of the clarity of that this is, in fact, an unacceptable threat to our national security.    Now, there are three things that we could debate that I think would be meaningless debates, and one of which is whether or not we use the word ``Islamic'' extremists or ``Islamic'' terrorists. I think ISIS and ISIL resolves that for us. The ``I'' in ISIS and ISIL is Islamic.    The debate on the issue of refugees should really be a debate about the fact that the failure of our policies has resulted in these refugees because they are not safe at home. It is not the issue of our compassion to those that flee the Syrian regime and flee ISIS, because neither of them have compassion for them and are trying to kill them. The issue is how do we have compassion for them to provide safety in the area of Syria and Iraq and stability where they can stay at home.    And another debate I think that is meaningless is the issue of boots on the ground or not on the ground, because that somehow has become a threshold litmus test of whether or not you have a correct policy. The correct policy is having a policy and a strategy for defeating ISIS and ISIL.    And so I am going to turn to you and your great expertise, in the time that you spent in Iraq. I appreciate the comments that you have made. But in order to determine boots on the ground or not boots on the ground, we have to have a strategy. You certainly indicated it is going to take diplomacy. I agree. I think Secretary Kerry should go and do as you have said and dedicate himself to this.    But there does have to be a military component. And what are some of the elements that you would see, sir, in that military strategy? Because I think there is great frustration in the American public as we hear that there are attacks now happening to ISIS and ISIL training camps, that we have known where they are, but no one is attacking them. Logistic supply lines, sales of oil, other, you know, operations of ISIS and ISIL are going without challenge.    So clearly, the strategy that we are doing is not working, and is threatening our national security. What are just some of the basic elements that we are not doing that you believe should be that overall military strategy as policy elements? Mr. Ambassador.    Ambassador Crocker. Thank you, Congressman.    The two that I think are important for us to do and do swiftly is, first, amp up significantly the air campaign against Islamic State. Paris changed a lot of things, and I think it should certainly change how we look at a target list. Let's look at it again. If there are key facilities for Islamic State that we have identified, we need to go nail them. And, again, money counts.    I hope that we are significantly ramping up an effort to figure out how they are making it and cut it off, whether that is politically or militarily inside Iraq or inside Syria. They are making a lot of money out of oil. Well, they have got to move the oil somehow. We should be able to figure out how and just absolutely stop it.    The second thing, as I suggested, is the establishment of no-fly and safe zones. And I don't mean to be glib about this. I mean, there is risk associated with that. There is cost associated with it. I am in the enviable position for the first time before this committee where I am not responsible for anything, but you are. So these are thoughts.    But I think that the establishment of no-fly and safe zones could bring in our Arab and--or Jordanian and Turkish partners in a way they are not engaged now, including with the possibility of a ground component. It could set the Russians back, getting at the Congresswoman's question. It would be fundamentally a military step, but it would have political significance.    Both of these together could then change the political environment we are looking at now that might make a political approach that is hard to imagine imaginable.</t>
   </si>
   <si>
@@ -184,9 +163,6 @@
     <t>412214</t>
   </si>
   <si>
-    <t>Timothy J. Walz</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Walz. Thank you, Mr. Chairman.    And thank you both again. You have been incredibly helpful.    I think, I find the need to do this, if we are quoting quotes about what happened to set our policy going forward, I just want to remind people of two. March 16, 2002, from Vice President Cheney: Things have gotten so bad in Iraq from the standpoint of the Iraqi people, we will be greeted as liberators; I think we will go relatively quickly. Weeks rather than months, he predicted, significant elements of the Republican Guard will step aside.    Later, June 20, 2005: The insurgency in Iraq is in the last throes; this will be over during the Bush Presidency.    Certainly mistakes have been made. Certainly things have been quoted. If we are using these things, we better learn from what was said as we are going forward. And I appreciate both of you for your thoughtfulness on that. You have always been there. You are giving us great testimonies today. With that, I think, as Members of Congress, it is important to keep that in mind.    Ambassador Crocker, my question to you is, are we synchronizing with State Department in all of these elements as we deal with, look at Syria, look at Iraq, as you are talking about? Because I keep hearing here, and you hear it in this disjointed silo talk of military action and everything else. In your experience, do you see a synchronized plan, if you will?    Ambassador Crocker. I certainly think this would be the time to develop one. One thing that Dave Petraeus and I did--we were sort of working on this before either of us ever got to Iraq--was to establish a joint civil-military team to begin framing a joint campaign plan. We developed it. It was blessed by the White House, and it was the plan for the whole of government, all the civilian agencies, DOD, and the military. It was, again, our joint campaign plan.    And I think the circumstances now, even less favorable and more complex, badly call out for that kind of broad strategy and a unified strategy. In our system, the only way you get there is for the White House, the President to say, this is what we are going to have. Go out and do it. And I certainly think this is the moment to do that.</t>
   </si>
   <si>
@@ -208,9 +184,6 @@
     <t>412538</t>
   </si>
   <si>
-    <t>Jackie Walorski</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Walorski. Thank you, Mr. Chairman.    Thank you, gentlemen, for being here. I appreciate it. And I appreciate your expertise.    I just kind of want to follow up on the last couple of questions. On the issue of taking your expertise and being able to look at this, kind of, from all the expertise you have and looking at it from the outside and saying, you know, here is what really needs to be happening, but in real time, in this culture and this country and what is happening.    And what is happening right here today in other committees that are meeting, talking about what do we do with refugees, talking about the difference between what we are all saying and what we should be saying and some of the benefits about what you are talking about with refugees and how we look then at all these things being projected back.    What is the role of the President? Because he is saying things too. So he is saying, you know, earlier on, these are JV folks. He is saying, we have contained these people as early as the morning of the attack on Paris. What kind of role does that play? How does that play back to ISIL when there is a disconnect to the American people? They are watching it. Every night we are watching it with them.    The President is here. We are here. Governors are saying no. Federal law, the President says--overrides anything that--and you have Americans all over the place, and they are hearing a mixed message from all of us. What does that say? What kind of signal does that send?    Ambassador Crocker. Okay. That is a great point, and it weaves in some of the other questions and things we have been talking about. We are, of course, a Presidential system.</t>
   </si>
   <si>
@@ -223,9 +196,6 @@
     <t xml:space="preserve">    Mrs. Walorski. I appreciate it.    And, Mr. Chairman, I yield back. Thank you.    The Chairman. Mr. O'Rourke.</t>
   </si>
   <si>
-    <t>O'Rourke</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. O'Rourke. Thank you, Mr. Chairman.    Ambassador Crocker, I want to ask two big questions, and I am going to try to give you 4 minutes to answer. And you can even point me in the right direction if there is not enough time. But to follow up on something the ranking member said, you made a really compelling case about how we need to reverse gains that Iran has made in Iraq, and roll back their hegemony there, and we can't act on that quickly enough.    But within the context of the Iran-Saudi Arabia cold war that was described earlier, it is hard to see how Saudi Arabia is a much better friend than Iran. Their successful exportation of Salafism, Wahhabism, the funding that continues to this day, the mess that they have helped to create in Iraq, in Syria, the fact that they may have a comparable number of beheadings in Saudi Arabia, comparable to ISIS, and the fact that they aren't really accepting refugees, how do we use our influence with Saudi Arabia? What leverage do we have to get them to be a better actor?    And then the other question, with 3 minutes and 30 seconds left is, can you outline at 30,000 feet a comprehensive strategy for the region so that we are not picking one or the other battle, and really addressing things comprehensively? You mentioned the modern area is 100 years. What is the 100-year look at this? Sorry for the short time to respond.    Ambassador Crocker. Yes, sir. On Saudi Arabia, yes, we have a lot of significant differences with the Saudis that, you know, John McLaughlin has alluded to. At the same time, the U.S.-Saudi relationship has been a pillar of U.S. policy and engagement in the Middle East since the end of World War II. I mean, our policies and our engagement were set on the deck of the USS Quincy in Great Bitter Lake in early 1945, the historic meeting between President Roosevelt and Ibn Saud.    So before we kick the prop out from under that keystone, we better really think about it. And think, as you said so well, you know, that when the Saudis finally got engaged, circa 2003, they did a pretty good job cleaning house. We need to build on that.    There is a fundamental issue there, no pun intended, of Salafism, because if you look at the theology of Islamic State, it goes back to the same primary source of Ibn Taymiyya, who is the primary theological source for Saudi Salafism, as it is for Islamic State jihadism. So there are some very tricky issues here. But I think we have got to be careful with that relationship, particularly at the current time.    The overarching U.S. strategy, I would say, it is the security and the stability of the states in the region, broadly speaking, certainly those who have been close to us. They are facing unprecedented threats. Let's look at it across the board. Who needs what from us?    Lebanon, a country that I spent 6 long, hard years in, including during the Beirut Embassy bombing that I survived, they are facing an existential threat through the refugee flows. You know, one out of five people in Lebanon is a Syrian refugee. What do they need to ensure their own stability? What does Jordan need? What do the Kurds need? Under the overarching construct that a stable Middle East is a vital U.S. interest, and that it has a lot of components, so that is where I would start.    It raises issues of economic development, of military cooperation. There are a lot of pieces out there. This is the time to knit it into a whole. And the construct I would offer is just that, what is necessary for the security and the stability of the region and of our friends in it. This is an Arab-Israeli discussion. It is an Arab-Kurdish discussion. It is a critical American discussion.</t>
   </si>
   <si>
@@ -235,9 +205,6 @@
     <t>412255</t>
   </si>
   <si>
-    <t>Robert J. Wittman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Wittman. Thank you, Mr. Chairman.    I would like to thank Mr. McLaughlin, Ambassador Crocker. Thanks so much for joining us.    I wanted to pose a question to both of you as we look at this pretty complex situation. I want to point to two individuals that I think have pretty good perspective on there. They spoke at the Reagan National Defense Forum. And former Under Secretary of Defense Policy Michele Flournoy argued to make sure we are putting opportunities and solutions in our hands so that we can influence the outcome of any political negotiations, and make sure that we are mindful of all the different pieces of how this fits together.    And Condoleezza Rice and Robert Gates argued in a Wall Street Journal article saying that we must create a better military balance of power on the ground if we are to seek a political solution acceptable to us and to our allies. And as you know, with Russia being in there, they seek to influence a political balance there, I think, to try to force a choice: It is either Assad or ISIL, obviously now with the other forces in the region, both with Iran trying to play in that arena and others.    Give us your perspective on how that balance ultimately plays out. What can we do to best predominate in the outcome of what will happen, and we will make an assumption that we do, indeed, defeat and destroy ISIS and that we are left now with what happens in that power vacuum. Give us your perspective on what we should do to make sure the outcomes are different than what has happened in Iraq?</t>
   </si>
   <si>
@@ -274,9 +241,6 @@
     <t>412642</t>
   </si>
   <si>
-    <t>Brad Ashford</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Ashford. Thank you.    And thank you for being here and thank you for everything you have done. This truly is an incredible afternoon for me. And I am new, but I did, in February, did go to the Middle East, and we did speak with many of the leaders you have talked about. And clearly, what was talked about then is what, to some extent, what you are talking about now.    I mean, the national guard issue was very compelling. We talked to the minister of defense who said this is a way for us to get national buy-in to what we are trying to do by having the national guard form up in each one of the provinces.    And then, also, King Abdullah talking about the idea of safe zones in the desert, outside of the cities that could be developed. And none of that seems to have occurred during that 7 or 8 months. And there are other things that were talked about as well.    I just have two basic, general questions. One is, when we talk about containment versus another strategy that is not containment. I have been thinking about this when we use the word ``containment,'' is there even a possibility of a containment strategy in the Middle East? It is so dynamic and changing so quickly. Both of you, maybe that is a very simple question, but I don't see how you can contain something that is changing, especially when you have an ISIS, an organization that can do what it did in Paris?    So, Ambassador.    Ambassador Crocker. Thank you. And I would just say very quickly, I am very pleased that you went out in February. I know what your lives and your schedules are like. I have seen members of this committee in hard places. I just can't underscore strongly enough how important CODELS [congressional delegations] to this troubled region are in ensuring that America has, through its elected representatives, has an understanding of what the realities are. So I hope you will continue to visit.    Yeah. Again, as Dave Petraeus and I have said, what happens in the Middle East doesn't stay in the Middle East. And that has always been true. I was a political counselor in Beirut after the embassy bombing when George Shultz came out as Secretary of State and he said he wished he could just build a 10-mile-high wall around Lebanon. And whatever happens inside it happens, but it doesn't happen to us. Well, you couldn't do it then and you can't do it now.    So you can't contain Islamic State any more than you could contain Al Qaeda. You have got to go after them wherever they are. Again, I do not believe you can defeat or eliminate Islamic State by air power, but I think we can certainly mess them up enough that it is going to be pretty darn difficult for them to get the bandwidth to plan a complex attack.    So I don't see containment as at all a viable option, and very dangerous to even talk about it. I don't see defeat in the cards anytime soon. But, boy, we should be getting after degrade in a very major way.</t>
   </si>
   <si>
@@ -298,9 +262,6 @@
     <t>412409</t>
   </si>
   <si>
-    <t>Richard B. Nugent</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Nugent. Thank you, Mr. Chairman.    And I appreciate your candid remarks.    When I visited Iraq in 2011 at the drawdown, and when we exited Iraq, I had two sons over there serving in the United States Army. And it was interesting their take in regards to what occurred just recently with ISIS, and what occurred within Baghdad, and particularly what, Mr. Ambassador, you had mentioned, the fact that we not only left--took our military out that gave, I think, some backbone, at least had some conversations with the Iraqi military, because my sons did some train-up with the Iraqis.    And there was some brigades that were outstanding combat units, and there were others that were terribly lacking. But then when we pulled out the political engagement, it just seems like that was a huge mistake that compounded it because we didn't have troops there to back up, or at least on a training end of it, assist the Iraqis.    I mean, we saw that starting to occur, I think, in Afghanistan. The President has since changed that. And I think you hit on this--and I will get to a question here in a second, but, Mr. Ambassador, I believe that a question was asked whether or not we have a strategy today to both of you.    Do you see us having a coherent strategy today from the President to outlining, A, what we expect to accomplish; and then B, how we are going to accomplish that? Do you see a strategy today that is articulable that we are having a hard time with? Do you see that today with the President?    Ambassador Crocker. I would be just blunt: No, I don't see a comprehensive strategy. And what I was trying to get at in response to Congressman O'Rourke's very good question, you know, maybe it was okay--I don't think it was, but maybe it was--before November 13; it is definitely not okay today. We need that strategy, and the President has to set the course.</t>
   </si>
   <si>
@@ -316,9 +277,6 @@
     <t>412632</t>
   </si>
   <si>
-    <t>Seth Moulton</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Moulton. Thank you, Mr. Chairman.    Thank you, gentlemen, both, for joining us here today.    Ambassador, I was a special assistant to General Petraeus when you were serving in Iraq. And although I was actually out in the field, I reported directly to him, and I can't tell you what a difference it made, the confidence that you and he brought to the troops on the ground with your leadership. So thank you especially for that.    I share your view that the center of gravity here is Iraq with the Islamic State. That is where they were able to dramatically expand their territory and influence. And I also share your view that it is our political withdrawal from the Iraqi Government that essentially set the conditions for them to expand.    I would like to hear from both of you, how, at this point, we should reestablish control or influence in the Iraqi Government?    Ambassador Crocker. Well, it is a whole lot harder to regain influence once you have lost it than to maintain it when you have got it, but we must make this effort, in my view. And I have given you my initial thought on this: To show we are serious, you send America's top diplomat. And it is not an overnighter. I mean, it is days.</t>
   </si>
   <si>
@@ -364,9 +322,6 @@
     <t>412611</t>
   </si>
   <si>
-    <t>Martha McSally</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. McSally. Thank you, Mr. Chairman.    Thank you, gentlemen, for your testimony.    I was in the Middle East in May, en route to Afghanistan. We stopped in Kuwait and Qatar, met with the joint task force leadership, and we were at the air operation center, which I have spent time there myself. And they basically told us that, you know, we have got them on the defense, and 2 weeks later, Ramadi fell. And I am sort of simplifying our long conversations.    And then last Friday, the President said, we have got them contained, you know, right before the Paris attack. So clearly, you know, we have got gaps in intelligence and information.    Just, Mr. McLaughlin, with all your experience, what can we do in order to close some of those gaps and, you know, specifically as we are looking at a whole-of-government approach trying to choke off their resources, like what else can we do to build capability growing in the intelligence? Are there other things we can do short term? Long term? Clearly we have gaps.</t>
   </si>
   <si>
@@ -385,9 +340,6 @@
     <t>412199</t>
   </si>
   <si>
-    <t>Henry C. "Hank" Johnson, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Johnson. Thank you.    Ambassador Crocker, you see no strategy. But I see a strategy working with coalition partners and local partners like the Kurdish forces and the Syrian Arabs to deal with the ground issue, which has resulted in about 25 percent of the area that ISIL covered having been recovered. I see a strategy of working with the Turks to secure the Turkish border, to prevent the revolving door of radicalized terrorists in and out of Syria.    I see a strategy of working to cut off ISIL's financing. I see a strategy of working to disrupt and expose the messaging that ISIL uses to radicalize and recruit terrorists. I see a strategy of working to stabilize the areas that have been liberated from ISIL control. I see addressing the issue of air power for the last year in both Iraq and Syria.    That is a strategy. That strategy is being tweaked as events occur. So I think it is unfair to say that there is no strategy. I think there is clearly a strategy. And another strategy that has been employed is to protect our homeland from events such as that which happened in Paris last Friday the 13th. And that is what Americans fear the most is an attack here on the homeland.    And what I hear you gentlemen in unison with an old strategy, that, quite frankly, contributed to us being at this point where we are now, with the ill-fated invasion of Iraq as a response to 9/11, you would have us do the same thing now, go into Syria with a no-fly zone, or a safe zone, as you call it, Mr. McLaughlin, but what it is is actually a no-fly zone.    And then both of you argued that the U.S. should lead a multilateral ground invasion, both in Iraq and Syria, but you don't have an end game. You don't tell us how long we are going to be there, how much money it is going to take, how many of Americans' sons and daughters will have to be killed and maimed in an endless war on foreign shores, us occupying basically. I mean, that is what it would result in.    And those two tactics, or those two strategies, ground war and air no-fly zone, do absolutely nothing to stop the development of homegrown radicalized terrorists, which is what most Americans fear. They fear a terrorist attack here in the U.S. How will what you propose prevent or staunch the growth of homeland terrorists that would strike Americans here on American soil? How would a ground war, thousands of miles away from here, stop that?</t>
   </si>
   <si>
@@ -449,9 +401,6 @@
   </si>
   <si>
     <t>412191</t>
-  </si>
-  <si>
-    <t>Doug Lamborn</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Lamborn. Thank you for indulging my last question here. Thank you for your service, both of you, very distinguished careers serving our country in various ways. I appreciate that. And maybe you have already addressed this. I have been in and out with other committees going on and so on. But I want to ask about the tilt by this administration toward Iran. I asked John Kerry this one time. He denied that there was any tilt toward Iran. And yet all of our Gulf State Arab partners, allies, friends, the Israelis, they are convinced that there is such a tilt.    So, even if it is not reality, it is perception at least. I think it is reality. Can you comment on that? Has there been a tilt? And if so, shouldn't the administration just come out and say that and that they want to see Iran become a regional player and welcomed back into the community of nations and be a good guy even though there is no evidence that they are going to actually pull that off? I am just very, very concerned about this direction. It seems like a huge gamble to me. But am I reading this wrong? Or is there actually a tilt going on toward Iran?    Ambassador Crocker. It is a very important question. I do not perceive a significant tilt by us toward Iran. But perception is reality. And nowhere is that more the case than the Middle East. And there is a perception that there is such a tilt, which is why I have emphasized in my written testimony, in my remarks today, we have got to make it absolutely clear that our goals and Iran's goals in the region could not be more opposite. That the nuclear agreement in no way implies that we are a party to Iran's nefarious policies and actions throughout the region. It is 20 years ago this month that a great world leader was assassinated, Yitzhak Rabin.    Before he was killed, he said something that I have always remembered. And it was about--it was the time he was negotiating with the Palestinians post-Oslo. He said, ``I will negotiate peace as though there were no terrorism, and I will fight terrorism as though there were no peace negotiations.'' Well, we need to fight Iranian-backed terrorism as though there were no nuclear agreement. Because that is what the Iranians are doing. They didn't let that agreement, which they wanted, get in the way of all the nefarious things they are doing in Syria and Iraq, and, to a degree, in Yemen. Well, we need to meet them with the same determination to confront them where they are acting as a very malign player.    You know, that doesn't jeopardize the agreement because it doesn't jeopardize the agreement for them as they carry out these malign actions. But I feel very strongly we have got to assert ourselves against them, both because of the damage they are doing, but also because of the perception in the eyes of our Sunni friends.</t>
@@ -868,11 +817,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -892,13 +839,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -918,13 +863,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -946,11 +889,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -972,11 +913,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -998,11 +937,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1022,13 +959,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1050,11 +985,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1074,13 +1007,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1102,11 +1033,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1126,13 +1055,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" t="s">
-        <v>26</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1152,13 +1079,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
         <v>25</v>
-      </c>
-      <c r="G13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1178,13 +1103,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
         <v>26</v>
-      </c>
-      <c r="H14" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1204,13 +1127,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" t="s">
-        <v>26</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1230,13 +1151,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" t="s">
-        <v>32</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1256,13 +1175,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" t="s">
-        <v>32</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1282,13 +1199,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
         <v>31</v>
-      </c>
-      <c r="G18" t="s">
-        <v>32</v>
-      </c>
-      <c r="H18" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1308,13 +1223,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1334,13 +1247,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20" t="s">
-        <v>32</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1360,13 +1271,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G21" t="s">
-        <v>32</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1386,13 +1295,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>39</v>
-      </c>
-      <c r="G22" t="s">
-        <v>40</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1412,13 +1319,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>39</v>
-      </c>
-      <c r="G23" t="s">
-        <v>40</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1438,13 +1343,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G24" t="s">
-        <v>40</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1464,13 +1367,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>44</v>
-      </c>
-      <c r="G25" t="s">
-        <v>45</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1490,13 +1391,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1516,13 +1415,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>44</v>
-      </c>
-      <c r="G27" t="s">
-        <v>45</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1542,13 +1439,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1568,13 +1463,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
+        <v>39</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
         <v>44</v>
-      </c>
-      <c r="G29" t="s">
-        <v>45</v>
-      </c>
-      <c r="H29" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1594,13 +1487,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>51</v>
-      </c>
-      <c r="G30" t="s">
-        <v>52</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1620,13 +1511,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>51</v>
-      </c>
-      <c r="G31" t="s">
-        <v>52</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1646,13 +1535,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>55</v>
-      </c>
-      <c r="G32" t="s">
-        <v>56</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1672,13 +1559,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>55</v>
-      </c>
-      <c r="G33" t="s">
-        <v>56</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1698,13 +1583,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1724,13 +1607,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>55</v>
-      </c>
-      <c r="G35" t="s">
-        <v>56</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1750,13 +1631,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1776,13 +1655,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>55</v>
-      </c>
-      <c r="G37" t="s">
-        <v>56</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1802,13 +1679,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>63</v>
-      </c>
-      <c r="G38" t="s">
-        <v>64</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1828,13 +1703,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>63</v>
-      </c>
-      <c r="G39" t="s">
-        <v>64</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1854,13 +1727,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>63</v>
-      </c>
-      <c r="G40" t="s">
-        <v>64</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1880,13 +1751,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>63</v>
-      </c>
-      <c r="G41" t="s">
-        <v>64</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1906,13 +1775,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" t="s">
-        <v>69</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1932,13 +1799,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" t="s">
-        <v>69</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1958,13 +1823,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>72</v>
-      </c>
-      <c r="G44" t="s">
-        <v>73</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1984,13 +1847,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2010,13 +1871,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>72</v>
-      </c>
-      <c r="G46" t="s">
-        <v>73</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2036,13 +1895,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2062,13 +1919,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>72</v>
-      </c>
-      <c r="G48" t="s">
-        <v>73</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2088,13 +1943,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2114,13 +1967,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>72</v>
-      </c>
-      <c r="G50" t="s">
-        <v>73</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2140,13 +1991,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2166,13 +2015,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>72</v>
-      </c>
-      <c r="G52" t="s">
-        <v>73</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2192,13 +2039,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>72</v>
-      </c>
-      <c r="G53" t="s">
-        <v>73</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2218,13 +2063,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>14</v>
-      </c>
-      <c r="G54" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2244,13 +2087,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>72</v>
-      </c>
-      <c r="G55" t="s">
+        <v>62</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
         <v>73</v>
-      </c>
-      <c r="H55" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2270,13 +2111,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>85</v>
-      </c>
-      <c r="G56" t="s">
-        <v>86</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2296,13 +2135,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>85</v>
-      </c>
-      <c r="G57" t="s">
-        <v>86</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2322,13 +2159,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>14</v>
-      </c>
-      <c r="G58" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2348,13 +2183,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>85</v>
-      </c>
-      <c r="G59" t="s">
-        <v>86</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2374,13 +2207,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>85</v>
-      </c>
-      <c r="G60" t="s">
-        <v>86</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2400,13 +2231,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>85</v>
-      </c>
-      <c r="G61" t="s">
-        <v>86</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2426,13 +2255,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>93</v>
-      </c>
-      <c r="G62" t="s">
-        <v>94</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2452,13 +2279,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>93</v>
-      </c>
-      <c r="G63" t="s">
-        <v>94</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2478,13 +2303,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>93</v>
-      </c>
-      <c r="G64" t="s">
-        <v>94</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2504,13 +2327,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>93</v>
-      </c>
-      <c r="G65" t="s">
-        <v>94</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2530,13 +2351,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>99</v>
-      </c>
-      <c r="G66" t="s">
-        <v>100</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2556,13 +2375,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>99</v>
-      </c>
-      <c r="G67" t="s">
-        <v>100</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2582,13 +2399,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>99</v>
-      </c>
-      <c r="G68" t="s">
-        <v>100</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2608,13 +2423,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>99</v>
-      </c>
-      <c r="G69" t="s">
-        <v>100</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2634,13 +2447,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>14</v>
-      </c>
-      <c r="G70" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2660,13 +2471,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>99</v>
-      </c>
-      <c r="G71" t="s">
-        <v>100</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2686,13 +2495,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>99</v>
-      </c>
-      <c r="G72" t="s">
-        <v>100</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2712,13 +2519,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>14</v>
-      </c>
-      <c r="G73" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2738,13 +2543,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>99</v>
-      </c>
-      <c r="G74" t="s">
-        <v>100</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2764,13 +2567,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>14</v>
-      </c>
-      <c r="G75" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2790,13 +2591,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>99</v>
-      </c>
-      <c r="G76" t="s">
-        <v>100</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2816,13 +2615,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>99</v>
-      </c>
-      <c r="G77" t="s">
-        <v>100</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2842,13 +2639,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>14</v>
-      </c>
-      <c r="G78" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2868,13 +2663,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>99</v>
-      </c>
-      <c r="G79" t="s">
+        <v>86</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
         <v>100</v>
-      </c>
-      <c r="H79" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2894,13 +2687,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>115</v>
-      </c>
-      <c r="G80" t="s">
-        <v>116</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2920,13 +2711,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>14</v>
-      </c>
-      <c r="G81" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2946,13 +2735,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>115</v>
-      </c>
-      <c r="G82" t="s">
-        <v>116</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2972,13 +2759,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>115</v>
-      </c>
-      <c r="G83" t="s">
-        <v>116</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2998,13 +2783,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>115</v>
-      </c>
-      <c r="G84" t="s">
-        <v>116</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3024,13 +2807,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>122</v>
-      </c>
-      <c r="G85" t="s">
-        <v>123</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3050,13 +2831,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>14</v>
-      </c>
-      <c r="G86" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3076,13 +2855,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>122</v>
-      </c>
-      <c r="G87" t="s">
-        <v>123</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3102,13 +2879,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>14</v>
-      </c>
-      <c r="G88" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3128,13 +2903,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>122</v>
-      </c>
-      <c r="G89" t="s">
-        <v>123</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3154,13 +2927,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>14</v>
-      </c>
-      <c r="G90" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3180,13 +2951,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>122</v>
-      </c>
-      <c r="G91" t="s">
-        <v>123</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3206,13 +2975,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>14</v>
-      </c>
-      <c r="G92" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3232,13 +2999,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>122</v>
-      </c>
-      <c r="G93" t="s">
-        <v>123</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3258,13 +3023,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>14</v>
-      </c>
-      <c r="G94" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3284,13 +3047,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>122</v>
-      </c>
-      <c r="G95" t="s">
-        <v>123</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3310,13 +3071,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>14</v>
-      </c>
-      <c r="G96" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3336,13 +3095,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>122</v>
-      </c>
-      <c r="G97" t="s">
-        <v>123</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3362,13 +3119,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>14</v>
-      </c>
-      <c r="G98" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3388,13 +3143,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
+        <v>107</v>
+      </c>
+      <c r="G99" t="s"/>
+      <c r="H99" t="s">
         <v>122</v>
-      </c>
-      <c r="G99" t="s">
-        <v>123</v>
-      </c>
-      <c r="H99" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3414,13 +3167,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>14</v>
-      </c>
-      <c r="G100" t="s">
-        <v>69</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3440,13 +3191,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>14</v>
-      </c>
-      <c r="G101" t="s">
-        <v>69</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3466,13 +3215,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>85</v>
-      </c>
-      <c r="G102" t="s">
-        <v>86</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3492,13 +3239,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>85</v>
-      </c>
-      <c r="G103" t="s">
-        <v>86</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3518,13 +3263,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>14</v>
-      </c>
-      <c r="G104" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3544,13 +3287,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>144</v>
-      </c>
-      <c r="G105" t="s">
-        <v>145</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3570,13 +3311,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>144</v>
-      </c>
-      <c r="G106" t="s">
-        <v>145</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3596,13 +3335,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>14</v>
-      </c>
-      <c r="G107" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3622,13 +3359,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>144</v>
-      </c>
-      <c r="G108" t="s">
-        <v>145</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3648,13 +3383,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>14</v>
-      </c>
-      <c r="G109" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3674,13 +3407,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>144</v>
-      </c>
-      <c r="G110" t="s">
-        <v>145</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg97821.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97821.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="168">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,21 @@
     <t>400379</t>
   </si>
   <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Smith. Thank you, Mr. Chairman. I have a longer statement, which I will just submit for the record. But I think this hearing is perfectly appropriate to really think broadly about what is our strategy. And I think it is not just against ISIS, but all of the groups affiliated with that ideology, Al Qaeda, Al-Shabaab, Boko Haram, Ansar al-Sharia in Libya. This is an ideology that we need to figure out how to defeat. For a long time it was Al Qaeda. Gosh, 10 years ago, no such thing as Al Qaeda in Iraq or ISIS. Now they are the great threat. And I agree with the chairman, I think this is a very significant threat, precisely because they have the same willingness that Osama bin Laden had to reach out and try to attack Western targets wherever they can find them. This is in our vital national security interests to figure out how best to contain this. But I think the lesson that has been learned is the ability of the United States to go militarily into a Muslim country and pacify it, if you will, and force it into a different direction. And Ambassador Crocker is very familiar with those struggles and those difficulties.    The issue isn't could we, in the short term, militarily defeat ISIS? Certainly. You know, we could, with our Western allies, have a force that could, you know, destroy them in the short term. But in the long term, do we create more of them? Do we then create a situation where we have even more of the Muslim world against us? How do we thread that needle? And I think that is the key. And what I want to hear most from our witnesses, how do we find allies in the Muslim, Sunni Muslim world in particular, since these groups are Sunni, and how do we assist them in defeating groups like ISIS and Al Qaeda, and convincing their populations that these are groups not to be supported and not to be joined?    How, in essence, does the Muslim world, do places like Iraq and Syria, offer a better alternative going forward? And a big part of this is this part of the world has a massive youth bulge, huge youth population, and almost no jobs. Nothing for these people to do. That makes these sort of ideologies even more attractive.    So a comprehensive solution is needed. I think we have two great witnesses here to offer us that perspective. And I look forward to their testimony. I thank the chairman for the hearing. With that, I yield back.    [The prepared statement of Mr. Smith can be found in the Appendix on page 41.]    The Chairman. I thank the gentleman. Let me, again, express our appreciation to both our witnesses for being here. John McLaughlin, as members know, was the deputy director and then the acting director of the CIA [Central Intelligence Agency] during the crucial beginning time of this fight against terrorists, shortly after 9/11. He now teaches at Johns Hopkins School for Advanced International Studies.    Ryan Crocker has been a Foreign Service Officer for 30-something years, ambassador to a whole variety of countries, including Iraq and Syria, and is now the dean at the George Bush School down in College Station. So we are very grateful to both of you for being here. I think the ranking member is exactly right, we are looking for the broader strategic perspective on what we are facing.    Without objection, your full written statements will be made part of the record. And I will turn to you first, Mr. McLaughlin, for any comments you would like to make.  STATEMENT OF JOHN E. McLAUGHLIN, FORMER ACTING DIRECTOR OF </t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
+    <t>McLaughlin</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. McLaughlin. Chairman Thornberry and members of the committee, I appreciate the opportunity to share my views today. I always enjoyed visiting this committee back when I worked at CIA for 30 years. And as a U.S. Army veteran with service in Vietnam, I understand the importance of the work you do. The United States confronts, in Syria and Iraq, the most complex set of national security problems I have ever seen, in a way, unprecedented even for the Middle East. At least six region-wide conflicts converge in these two countries: Persian versus Arab, Sunni versus Shia, modernizers versus traditionalists, terrorists versus regimes, terrorists versus terrorists, and great powers versus great powers. You know, at the center of this is the most vicious and capable terrorist group I have ever seen.    My last 4 years in government, as the chairman alluded, were focused on the battle against Al Qaeda in the post-9/11 period. The battle against ISIL [Islamic State of Iraq and the Levant] will be harder because ISIL has at least six strengths that Al Qaeda never had. First, it has an ambitious strategy focused on establishing concentric circles of influence and operational activity well beyond its Syrian base. Second, it possesses territory extensive enough to credibly claim a caliphate. Third, it has money in the hundreds of millions of dollars that buys expertise, loyalty, weapons, training, and influence. Fourth, it has barely impeded access to the West by virtue of the 4,500 Western passport holders in its ranks. Fifth, a narrative far more powerful than Al Qaeda's, promising jobs, families, fellowship, and power to people to whom it appeals. Its recruiting emphasizes these things, not the brutality we see on television.    Finally, unlike Al Qaeda, it has won grudging acquiescence in many areas it controls by providing rudimentary public services. So any effort to form a counter-ISIL strategy and settle the Syrian conflict has to begin with an appreciation of the realities we face.    First, time matters. Timetables slip for offensives to reclaim Mosul or Ramadi or to train fighters. Meanwhile, 1,000 fighters a month join ISIL. Its roots grow deeper. Second, the interests of major powers have to be reconciled. A Syrian settlement is unlikely without some Russian, Iranian, and perhaps Saudi acquiescence or cooperation. Third, progress will be impossible without meeting the grievances of abused and alienated Sunni populations, which constitutes 70 percent of Syria, about 20 percent of Iraq.    Fourth, substantial territory must be reclaimed from ISIL to erode the image of invulnerability and its claim to a caliphate. And fifth, air power is important, but probably won't be enough.    So in light of those realities, what are the elements of a successful strategy? First, be clear about priorities. Trying to get rid of Assad and ISIL at the same time led us into what I would call a catch-22 cul-de-sac. Hurting one invariably helps the other. Time to say destroying ISIL comes first, and we will do the necessary to achieve that. Now, in making these recommendations, I want to be clear, I don't have access to the data and the capabilities of the Joint Staff. So many of the things I am about to say here are aspirational. They would need careful planning. And I don't minimize the difficulty.    But second, we can, more robustly, arm forces that have shown success against ISIL, such as the Kurds in Syria and Iraq. Third, increase the intensity of the air campaign and the number of U.S. special operators in theater, empowering them to go forward with trusted forces to advise and assist with targeting, something we did in the early days of the Afghan war. Fourth, move, finally, to establish a safe zone in Syria for fighters and refugees, as General Petraeus has suggested, defended by coalition aircraft with U.S. advisers present, and with a warning to Assad to stay out.    Fifth, and most challenging, lead in the formation of a multinational force that could bring the air and ground components of our strategy into better balance. And finally, in the Vienna talks on the political solution for Syria currently taking place among 19 nations, seek traction on what must be the single element of consensus among them that none can see benefit in having another failed state, another Libya, if you will, in the heart of the Middle East.    Finally, let me conclude, Mr. Chairman, by saying it is impossible to overestimate the importance of vigorous engagement with Baghdad for a government more inclusive of Sunnis and all Iraqi elements. Otherwise, Iraq can neither survive as a unitary state nor field an effective fighting force. Thank you, Mr. Chairman.    [The prepared statement of Mr. McLaughlin can be found in the Appendix on page 43.]    The Chairman. Thank you, sir. Mr. Ambassador.    Ambassador Crocker. Thank you, Mr. Chairman, Ranking Member Smith, members of the committee. It is a privilege to be before you today on issues of such great consequence. It has been a very grim 3 weeks. The downing of the Russian airliner, the bombings in Beirut, the horrific attacks in Paris, make it clear to all of us the enormous threat that the Islamic State poses. These attacks come against a backdrop of chaos and violence unprecedented in the modern history of the Middle East, which I date back to the end of World War I.    Three states have failed completely: Syria, Libya, and Yemen. I would argue that Iraq is very, very close. And with the failure of states, we have seen the rise of nonstate actors, most prominently Islamic State, but also Al Qaeda, Iranian-backed Shia militias in Iraq, and a host of others. The stability of the entire region is at risk, as are some core U.S. interests, the security of our friends in the region, including Israel, the flow of oil to our allies around the world, and our own security. As we saw so tragically in Paris and in Beirut, as my friend and former wingman Dave Petraeus said, what happens in the Middle East does not stay in the Middle East.    The emergence of Islamic State and other nonstate actors has its roots in an even larger problem, the pervasive failure of governance in the region. The history of the modern Middle East is a history of failed ``isms'': colonialism, monarchism, Arab nationalism, Arab socialism, communism, authoritarianism. We can hope Islamic State's twisted form of Islamism is the next to fail, but hope is a poor policy. John McLaughlin said something very important. Islamic State gets this. They know it is not just about the bloody sword, it is about picking up the garbage. Wherever they move in, they attempt to establish services, a very brutal but predictable form of justice, and above all, to demonstrate that unlike the regimes that came before them in Syria and Iraq, they are not personally corrupt.    If you want to look for an indicator on the longevity of ISIS or Islamic State, look to how they govern in the areas they control. I say this to situate recent developments in a larger context, and to underscore how enormously complex these problems are. If there are any fixes at all, they will not be quick. There are things that we can and should do, I believe, short of deploying ground forces. I agree with John McLaughlin, we need to ramp up our air campaign significantly, to actually degrade Islamic State.    We need to go after their resources. We need to go after their money, as we did with Al Qaeda in Iraq when I was there. The targeting of their oil infrastructure, I think, is an important step in this direction. I have argued for some time that we need to establish no-fly zones, covering safe zones, as John McLaughlin and Dave Petraeus have both said. This is important as a humanitarian step to stop the wholesale slaughter by the Assad regime of Syria's own citizens. It is also important politically at two levels. First, it will weaken the Assad regime. It will not bring it down, but it will weaken it. And it might cause Assad and his backers, Syria and Russia--I am sorry, Iran and Russia, to recalculate and perhaps move them toward a negotiating posture that would actually make the only solution that is possible come into focus, which is a political settlement.    The second point for behind a no-fly zone is it would be a signal to the region, particularly to Syria's Sunnis, that all the bombs are not falling on Sunni heads, even if they are ISIS. So this is going to have to be a very carefully calculated process. We have got to fight a Sunni group that is fighting us. We also have to signal that we understand and are taking steps to protect a Sunni population from a regime that is killing so many of them.    Implicit in this is my belief that Russia and the Iranians are absolutely not our allies. Any perception of U.S. association with Russia or Iran in a fight against Islamic State is going to turn the Sunni world in Syria and outside of it even further against us. As John McLaughlin says, there is a broader conflict here, hot and somewhat a cold war. Iran and Saudi Arabia are the two principal protagonists: The Persians, the Shia; the Arabs and the Sunnis. Russia and Iran are squarely on one side of that divide. We have to be careful we are not perceived as joining them there.    I have argued for a substantial increase in Syrian refugee admission after thorough vetting. This blunts the Islamic State narrative that we are the enemies of Arabs and Muslims, and it increases our leverage with others who can do more, either on resettlement or financially. And it is a way, Congressman Smith, that I believe we can start to pull Arab and Muslim states more toward us, to have that serious conversation we so badly need to have about what the future of the area is as we look ahead.    A couple of other points. John Allen, one of the greatest officers, in my view, ever to wear a military uniform, is stepping down as our envoy to the anti-ISIS coalition. I would urge that the next envoy be a Presidential envoy, not an envoy of the Secretary of State. If we want to say that we are serious about this, the weight of the White House needs to be behind our point person in this struggle. Dave Petraeus and I have argued that there are other steps that we can take. Move our military headquarters from Kuwait to Baghdad. If we are fighting a war, we need to be on the battlefield. And in terms of civil-military cooperation, as I saw with Dave Petraeus, Ray Odierno, and John Allen, when my military counterpart was just across the hall, it certainly made the necessary unity of effort and objective that much easier.    Mr. Chairman, the center of gravity for Islamic State is in Iraq. That is where it emerged, and that is where its key leaders are from. It grew in the sectarian canyons that were created as Iraqi Sunnis were increasingly alienated from the sectarian Shia government influenced by Iran. So John McLaughlin and I would, I think, agree completely, the primary focus of our efforts has to be political, and it has to be getting at some of these root issues of a sense of disenfranchisement and isolation of Sunnis within their own states. U.S. reengagement, at a sustained and high level, can make a difference in Iraq. I learned through two long hard years that different Iraqi factions cannot compromise among each other. They simply cannot because of the legacy of literal blood between them.    But what they can do is give us something that we can then take to another faction and leader and start to put together transactions that they all want, or many of them want, that they can't do on their own. We are the indispensable actor. We played that role during my time in Iraq, 2007 to 2009. I urge that we play it again. I am calling, therefore, not for the deployment of the 101st Airborne, but for the deployment of the Secretary of State to go out to Baghdad and to sit there for a week or 10 days, banging heads together, seeing what compromises can be forged. The Iranians are doing it all the time. We need to do it as well.    So U.S. leadership cannot solve the problems of the Middle East or anything close to it, but it can make a difference. Most crucially, it can make a difference in preserving Iraq and Syria as unitary states. I know this is an issue of concern to this committee. It is my view that de facto partitioning favors only Islamic State and Iran and its proxies. A division into a Kurdistan, a jihadistan controlled by Islamic State, and a Shiastan dominated by Iran in Iraq may be to the interests of those parties; it is not to the U.S. interests. Thank you, Mr. Chairman.    [The prepared statement of Ambassador Crocker can be found in the Appendix on page 54.]    The Chairman. Thank you. Lots of interesting comments. I would like to follow up, but I will try to restrain myself to just a couple questions. I think everybody acknowledges that the military alone cannot solve the problem of Iraq, Syria, or ISIS. But I would appreciate it if each of you could briefly comment on the role you think military action could and should play. Mr. McLaughlin mentioned that time slippage is a factor. When we say we are going to do something, we don't take the town--or the town is not taken, then that reduces credibility. I know Dr. Kissinger, among others, have argued that ineffectual military action actually helps ISIS, because they are seen to withstand bombing, or whatever it is that we do, and it strengthens their prestige. So could each of you briefly comment on the role the military action, not just by us, but military action should play in this conflict?</t>
   </si>
   <si>
@@ -88,6 +100,12 @@
     <t>400137</t>
   </si>
   <si>
+    <t>Forbes</t>
+  </si>
+  <si>
+    <t>J.</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Forbes. Mr. Chairman, thank you for holding the hearing. Gentlemen, thank you for your service to our country and for being willing to help us today. The two phrases that I picked out that you indicated, one was that the U.S. was an indispensable actor, if I understood that correctly. And the second one was that Iraq was the center of gravity for ISIS. As we look at the realization that a military component cannot, in and of itself, settle this problem, we all know, and I think all of us have always known you need the political and the economic and diplomatic. But you have also indicated that you cannot settle it without a significant military component. So that we can make sure we have learned from our mistakes and don't commit them going forward, what was the impact of not having a significant military component in Iraq in terms of allowing the strengthening of ISIS?    Ambassador Crocker. An important question, Congressman. In 2011, of course, we withdrew all of our military forces from Iraq. But in my view, that was not the most significant withdrawal. Really in 2011, we also pulled back from serious, sustained political engagement with Iraqi political leaders. You can argue we shouldn't have to do this, shouldn't be in the middle of somebody else's internal affairs, but it is a hard truth that the Iraqi political system will not function in any positive manner unless there is someone in the middle between and among the different factions.    So it wasn't the withdrawal of U.S. combat power that I think set us on such a grim road from 2011 until today, so much as it was a withdrawal of U.S. political engagement. And that is why I have urged, for some time, and I am sure Secretary Kerry wonders what he ever did to me, but I would like to see him out there, backed up by the President, with a series of phone calls, not just to the prime minister, but to political leaders of every faction to try to get them to the point where they can pass, for example, national guard legislation, which has been stalled in parliament now for months. That would permit provinces to raise their own national guards, which would be paid and equipped by the central government, but much like our own National Guard system, would be under the authority of a provincial governor. That is how you get your hold force for places like Mosul and Ramadi. But it can only happen if the politics work. The politics manifestly will not work.</t>
   </si>
   <si>
@@ -103,6 +121,12 @@
     <t>400097</t>
   </si>
   <si>
+    <t>Davis</t>
+  </si>
+  <si>
+    <t>Susan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mrs. Davis. Thank you, Mr. Chairman. And thank you both for being here. Good to see you, Mr. Ambassador. I wanted to follow up briefly with the discussion that you had earlier, because we know that the issue of refugees has also morphed into how we fight ISIS right now. And so, I wanted to--just speaking to the narrative if we were to move in a fairly strong push to push back refugees, whether it is seen as incremental by us, perhaps, but not necessarily interpreted that way elsewhere, how do you see that assisting ISIS, actually, if we were to do that?    Ambassador Crocker. It reinforces their narrative that the Islamic State is the only force that will defend the faith and defend the believers in the faith, but that the West are the successors of the Crusaders, they are fundamentally the enemies of all right-thinking Muslims. So it is in that sense that I think it can feed that narrative. It was very interesting when Angela Merkel, when she was asked this, I think in September, when she took a public position basically saying refugees, Syrian refugees are welcome in Germany.    Well, my colleagues tell me that ISIS kind of got really spun up over that, and on their social media saying it is all a plot. They don't mean it. They are just trying to lure you in so they can destroy you later once you have surrendered yourself to this Crusader government. It suggests that they saw that as a threat. So, you know, that would be my thought on this. Am I laying this out there as if we do, they will? No, I can't say that for certain. I think it is, though, an issue we should take into account as we consider this very serious problem.</t>
   </si>
   <si>
@@ -124,6 +148,12 @@
     <t>400433</t>
   </si>
   <si>
+    <t>Wilson</t>
+  </si>
+  <si>
+    <t>Joe</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Wilson. Thank you, Mr. Chairman. And Director McLaughlin, thank you for being here. Ambassador Crocker, thank you. And I have had the extraordinary opportunity to visit, Ambassador Crocker, you in Baghdad, also in Kabul, and to visit with you around the Middle East. And every time I have been there, I have seen your great appreciation of the citizens of those countries. In particular, I was there for the earthquake relief in Muzaffarabad in Pakistan. It is very clear that you are representing American interests, but it is on behalf of the people in the countries that you were serving in. I also share very much the point that you just made, and that is, that we need to have a consistency, we need to have a long-term approach. And that is why there are two quotes that come to mind to me that the American people need to know. And that is that President Bush, on July 12, George W. Bush, on July 12, 2007, quote, ``To begin withdrawing before our commanders tell us that we are ready would be dangerous for Iraq, for the region, and for the United States. It would mean surrendering the future of Iraq to Al Qaeda. It would mean we would be risking mass killings on a horrific scale. It would mean we would allow the terrorists to establish a safe haven in Iraq to replace the one they lost in Afghanistan,'' end of quote.    And then President Barack Obama on December 14, 2011, he claimed and announced, quote, ``Everything that American troops have done in Iraq, all the fighting and all the dying, the bleeding and the building, and the training and the partnering, all of this has led to this moment of success. We are leaving behind a sovereign, stable, and self-reliant Iraq,'' end of quote.    It bothers me that there is simply not--that proves your point of a lack of consistency. In line with that, what do you see the political difficulties in Iraq of Prime Minister Abadi, what he is facing? And what role does the former Prime Minister Maliki play in progress, or lack of progress, in the country?    Ambassador Crocker. Thank you, Congressman. Yes, we recall we first met a decade ago in Islamabad, and then later in Kabul and in Baghdad. You go to only the best places.</t>
   </si>
   <si>
@@ -136,6 +166,12 @@
     <t>412254</t>
   </si>
   <si>
+    <t>Tsongas</t>
+  </si>
+  <si>
+    <t>Niki</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Tsongas. Thank you, Mr. Chairman. I appreciate very much the thoughtful testimony you are both giving today. And to think over and over again you reinforce the complexity of the challenge that we face. But we all know that, bottom line, we do have a fundamental obligation in this very complex environment to best protect our country and be sure that we keep this country and our people safe. And given the dynamics of the Middle East, it does raise a lot of questions. I appreciate, Ambassador Crocker, that you have a lot of confidence in our Secretary Kerry, that in your testimony, you have suggested that he should become more engaged in Baghdad, that we as a country, through him, have an important role to play in bridging some of the divides between the different elements of the fight. But much of his attention is now turned to Russia. And I am curious as to your thoughts, both of your thoughts, really, as to whether or not Russia is changing its calculations at all given the downing of their jet and their seeming openness, at least through Mr. Lavrov, to engage in some way with Secretary Kerry, what you see as the possibilities there.    You suggested, I think, Ambassador Crocker, we have to be very wary that what they seek is something quite different. But I would be curious as to your thoughts. Is there a diplomatic option here, at least in the context of Syria, that at least might slow the outflow and the humanitarian crisis that we are witnessing?</t>
   </si>
   <si>
@@ -154,6 +190,12 @@
     <t>400411</t>
   </si>
   <si>
+    <t>Turner</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Turner. Mr. McLaughlin, Ambassador Crocker, thank you for being here.    Ambassador Crocker, I appreciated your briefings that I, too, received in Iraq when you were there, and I appreciated your dedication. Your written statement is incredibly helpful. I mean, there are three things that I think are points that need to be emphasized: And one is that when you left Iraq in 2009, that you could never have imagined how it looks today, even in your worst nightmares; and two, you state further on in that paragraph, on page 2, ``Withdrawal of our forces and a virtual end to sustained political engagement in Iraq after 2010 did not end the war. It simply left the field to our enemies.''    And then you end that paragraph with, ``This is an unacceptable threat to the United States national security.'' I think that is why everyone is so concerned is because of the clarity of that this is, in fact, an unacceptable threat to our national security.    Now, there are three things that we could debate that I think would be meaningless debates, and one of which is whether or not we use the word ``Islamic'' extremists or ``Islamic'' terrorists. I think ISIS and ISIL resolves that for us. The ``I'' in ISIS and ISIL is Islamic.    The debate on the issue of refugees should really be a debate about the fact that the failure of our policies has resulted in these refugees because they are not safe at home. It is not the issue of our compassion to those that flee the Syrian regime and flee ISIS, because neither of them have compassion for them and are trying to kill them. The issue is how do we have compassion for them to provide safety in the area of Syria and Iraq and stability where they can stay at home.    And another debate I think that is meaningless is the issue of boots on the ground or not on the ground, because that somehow has become a threshold litmus test of whether or not you have a correct policy. The correct policy is having a policy and a strategy for defeating ISIS and ISIL.    And so I am going to turn to you and your great expertise, in the time that you spent in Iraq. I appreciate the comments that you have made. But in order to determine boots on the ground or not boots on the ground, we have to have a strategy. You certainly indicated it is going to take diplomacy. I agree. I think Secretary Kerry should go and do as you have said and dedicate himself to this.    But there does have to be a military component. And what are some of the elements that you would see, sir, in that military strategy? Because I think there is great frustration in the American public as we hear that there are attacks now happening to ISIS and ISIL training camps, that we have known where they are, but no one is attacking them. Logistic supply lines, sales of oil, other, you know, operations of ISIS and ISIL are going without challenge.    So clearly, the strategy that we are doing is not working, and is threatening our national security. What are just some of the basic elements that we are not doing that you believe should be that overall military strategy as policy elements? Mr. Ambassador.    Ambassador Crocker. Thank you, Congressman.    The two that I think are important for us to do and do swiftly is, first, amp up significantly the air campaign against Islamic State. Paris changed a lot of things, and I think it should certainly change how we look at a target list. Let's look at it again. If there are key facilities for Islamic State that we have identified, we need to go nail them. And, again, money counts.    I hope that we are significantly ramping up an effort to figure out how they are making it and cut it off, whether that is politically or militarily inside Iraq or inside Syria. They are making a lot of money out of oil. Well, they have got to move the oil somehow. We should be able to figure out how and just absolutely stop it.    The second thing, as I suggested, is the establishment of no-fly and safe zones. And I don't mean to be glib about this. I mean, there is risk associated with that. There is cost associated with it. I am in the enviable position for the first time before this committee where I am not responsible for anything, but you are. So these are thoughts.    But I think that the establishment of no-fly and safe zones could bring in our Arab and--or Jordanian and Turkish partners in a way they are not engaged now, including with the possibility of a ground component. It could set the Russians back, getting at the Congresswoman's question. It would be fundamentally a military step, but it would have political significance.    Both of these together could then change the political environment we are looking at now that might make a political approach that is hard to imagine imaginable.</t>
   </si>
   <si>
@@ -163,6 +205,12 @@
     <t>412214</t>
   </si>
   <si>
+    <t>Walz</t>
+  </si>
+  <si>
+    <t>Timothy</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Walz. Thank you, Mr. Chairman.    And thank you both again. You have been incredibly helpful.    I think, I find the need to do this, if we are quoting quotes about what happened to set our policy going forward, I just want to remind people of two. March 16, 2002, from Vice President Cheney: Things have gotten so bad in Iraq from the standpoint of the Iraqi people, we will be greeted as liberators; I think we will go relatively quickly. Weeks rather than months, he predicted, significant elements of the Republican Guard will step aside.    Later, June 20, 2005: The insurgency in Iraq is in the last throes; this will be over during the Bush Presidency.    Certainly mistakes have been made. Certainly things have been quoted. If we are using these things, we better learn from what was said as we are going forward. And I appreciate both of you for your thoughtfulness on that. You have always been there. You are giving us great testimonies today. With that, I think, as Members of Congress, it is important to keep that in mind.    Ambassador Crocker, my question to you is, are we synchronizing with State Department in all of these elements as we deal with, look at Syria, look at Iraq, as you are talking about? Because I keep hearing here, and you hear it in this disjointed silo talk of military action and everything else. In your experience, do you see a synchronized plan, if you will?    Ambassador Crocker. I certainly think this would be the time to develop one. One thing that Dave Petraeus and I did--we were sort of working on this before either of us ever got to Iraq--was to establish a joint civil-military team to begin framing a joint campaign plan. We developed it. It was blessed by the White House, and it was the plan for the whole of government, all the civilian agencies, DOD, and the military. It was, again, our joint campaign plan.    And I think the circumstances now, even less favorable and more complex, badly call out for that kind of broad strategy and a unified strategy. In our system, the only way you get there is for the White House, the President to say, this is what we are going to have. Go out and do it. And I certainly think this is the moment to do that.</t>
   </si>
   <si>
@@ -184,6 +232,12 @@
     <t>412538</t>
   </si>
   <si>
+    <t>Walorski</t>
+  </si>
+  <si>
+    <t>Jackie</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mrs. Walorski. Thank you, Mr. Chairman.    Thank you, gentlemen, for being here. I appreciate it. And I appreciate your expertise.    I just kind of want to follow up on the last couple of questions. On the issue of taking your expertise and being able to look at this, kind of, from all the expertise you have and looking at it from the outside and saying, you know, here is what really needs to be happening, but in real time, in this culture and this country and what is happening.    And what is happening right here today in other committees that are meeting, talking about what do we do with refugees, talking about the difference between what we are all saying and what we should be saying and some of the benefits about what you are talking about with refugees and how we look then at all these things being projected back.    What is the role of the President? Because he is saying things too. So he is saying, you know, earlier on, these are JV folks. He is saying, we have contained these people as early as the morning of the attack on Paris. What kind of role does that play? How does that play back to ISIL when there is a disconnect to the American people? They are watching it. Every night we are watching it with them.    The President is here. We are here. Governors are saying no. Federal law, the President says--overrides anything that--and you have Americans all over the place, and they are hearing a mixed message from all of us. What does that say? What kind of signal does that send?    Ambassador Crocker. Okay. That is a great point, and it weaves in some of the other questions and things we have been talking about. We are, of course, a Presidential system.</t>
   </si>
   <si>
@@ -196,6 +250,9 @@
     <t xml:space="preserve">    Mrs. Walorski. I appreciate it.    And, Mr. Chairman, I yield back. Thank you.    The Chairman. Mr. O'Rourke.</t>
   </si>
   <si>
+    <t>O'Rourke</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. O'Rourke. Thank you, Mr. Chairman.    Ambassador Crocker, I want to ask two big questions, and I am going to try to give you 4 minutes to answer. And you can even point me in the right direction if there is not enough time. But to follow up on something the ranking member said, you made a really compelling case about how we need to reverse gains that Iran has made in Iraq, and roll back their hegemony there, and we can't act on that quickly enough.    But within the context of the Iran-Saudi Arabia cold war that was described earlier, it is hard to see how Saudi Arabia is a much better friend than Iran. Their successful exportation of Salafism, Wahhabism, the funding that continues to this day, the mess that they have helped to create in Iraq, in Syria, the fact that they may have a comparable number of beheadings in Saudi Arabia, comparable to ISIS, and the fact that they aren't really accepting refugees, how do we use our influence with Saudi Arabia? What leverage do we have to get them to be a better actor?    And then the other question, with 3 minutes and 30 seconds left is, can you outline at 30,000 feet a comprehensive strategy for the region so that we are not picking one or the other battle, and really addressing things comprehensively? You mentioned the modern area is 100 years. What is the 100-year look at this? Sorry for the short time to respond.    Ambassador Crocker. Yes, sir. On Saudi Arabia, yes, we have a lot of significant differences with the Saudis that, you know, John McLaughlin has alluded to. At the same time, the U.S.-Saudi relationship has been a pillar of U.S. policy and engagement in the Middle East since the end of World War II. I mean, our policies and our engagement were set on the deck of the USS Quincy in Great Bitter Lake in early 1945, the historic meeting between President Roosevelt and Ibn Saud.    So before we kick the prop out from under that keystone, we better really think about it. And think, as you said so well, you know, that when the Saudis finally got engaged, circa 2003, they did a pretty good job cleaning house. We need to build on that.    There is a fundamental issue there, no pun intended, of Salafism, because if you look at the theology of Islamic State, it goes back to the same primary source of Ibn Taymiyya, who is the primary theological source for Saudi Salafism, as it is for Islamic State jihadism. So there are some very tricky issues here. But I think we have got to be careful with that relationship, particularly at the current time.    The overarching U.S. strategy, I would say, it is the security and the stability of the states in the region, broadly speaking, certainly those who have been close to us. They are facing unprecedented threats. Let's look at it across the board. Who needs what from us?    Lebanon, a country that I spent 6 long, hard years in, including during the Beirut Embassy bombing that I survived, they are facing an existential threat through the refugee flows. You know, one out of five people in Lebanon is a Syrian refugee. What do they need to ensure their own stability? What does Jordan need? What do the Kurds need? Under the overarching construct that a stable Middle East is a vital U.S. interest, and that it has a lot of components, so that is where I would start.    It raises issues of economic development, of military cooperation. There are a lot of pieces out there. This is the time to knit it into a whole. And the construct I would offer is just that, what is necessary for the security and the stability of the region and of our friends in it. This is an Arab-Israeli discussion. It is an Arab-Kurdish discussion. It is a critical American discussion.</t>
   </si>
   <si>
@@ -205,6 +262,12 @@
     <t>412255</t>
   </si>
   <si>
+    <t>Wittman</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Wittman. Thank you, Mr. Chairman.    I would like to thank Mr. McLaughlin, Ambassador Crocker. Thanks so much for joining us.    I wanted to pose a question to both of you as we look at this pretty complex situation. I want to point to two individuals that I think have pretty good perspective on there. They spoke at the Reagan National Defense Forum. And former Under Secretary of Defense Policy Michele Flournoy argued to make sure we are putting opportunities and solutions in our hands so that we can influence the outcome of any political negotiations, and make sure that we are mindful of all the different pieces of how this fits together.    And Condoleezza Rice and Robert Gates argued in a Wall Street Journal article saying that we must create a better military balance of power on the ground if we are to seek a political solution acceptable to us and to our allies. And as you know, with Russia being in there, they seek to influence a political balance there, I think, to try to force a choice: It is either Assad or ISIL, obviously now with the other forces in the region, both with Iran trying to play in that arena and others.    Give us your perspective on how that balance ultimately plays out. What can we do to best predominate in the outcome of what will happen, and we will make an assumption that we do, indeed, defeat and destroy ISIS and that we are left now with what happens in that power vacuum. Give us your perspective on what we should do to make sure the outcomes are different than what has happened in Iraq?</t>
   </si>
   <si>
@@ -241,6 +304,12 @@
     <t>412642</t>
   </si>
   <si>
+    <t>Ashford</t>
+  </si>
+  <si>
+    <t>Brad</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Ashford. Thank you.    And thank you for being here and thank you for everything you have done. This truly is an incredible afternoon for me. And I am new, but I did, in February, did go to the Middle East, and we did speak with many of the leaders you have talked about. And clearly, what was talked about then is what, to some extent, what you are talking about now.    I mean, the national guard issue was very compelling. We talked to the minister of defense who said this is a way for us to get national buy-in to what we are trying to do by having the national guard form up in each one of the provinces.    And then, also, King Abdullah talking about the idea of safe zones in the desert, outside of the cities that could be developed. And none of that seems to have occurred during that 7 or 8 months. And there are other things that were talked about as well.    I just have two basic, general questions. One is, when we talk about containment versus another strategy that is not containment. I have been thinking about this when we use the word ``containment,'' is there even a possibility of a containment strategy in the Middle East? It is so dynamic and changing so quickly. Both of you, maybe that is a very simple question, but I don't see how you can contain something that is changing, especially when you have an ISIS, an organization that can do what it did in Paris?    So, Ambassador.    Ambassador Crocker. Thank you. And I would just say very quickly, I am very pleased that you went out in February. I know what your lives and your schedules are like. I have seen members of this committee in hard places. I just can't underscore strongly enough how important CODELS [congressional delegations] to this troubled region are in ensuring that America has, through its elected representatives, has an understanding of what the realities are. So I hope you will continue to visit.    Yeah. Again, as Dave Petraeus and I have said, what happens in the Middle East doesn't stay in the Middle East. And that has always been true. I was a political counselor in Beirut after the embassy bombing when George Shultz came out as Secretary of State and he said he wished he could just build a 10-mile-high wall around Lebanon. And whatever happens inside it happens, but it doesn't happen to us. Well, you couldn't do it then and you can't do it now.    So you can't contain Islamic State any more than you could contain Al Qaeda. You have got to go after them wherever they are. Again, I do not believe you can defeat or eliminate Islamic State by air power, but I think we can certainly mess them up enough that it is going to be pretty darn difficult for them to get the bandwidth to plan a complex attack.    So I don't see containment as at all a viable option, and very dangerous to even talk about it. I don't see defeat in the cards anytime soon. But, boy, we should be getting after degrade in a very major way.</t>
   </si>
   <si>
@@ -262,6 +331,12 @@
     <t>412409</t>
   </si>
   <si>
+    <t>Nugent</t>
+  </si>
+  <si>
+    <t>Richard</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Nugent. Thank you, Mr. Chairman.    And I appreciate your candid remarks.    When I visited Iraq in 2011 at the drawdown, and when we exited Iraq, I had two sons over there serving in the United States Army. And it was interesting their take in regards to what occurred just recently with ISIS, and what occurred within Baghdad, and particularly what, Mr. Ambassador, you had mentioned, the fact that we not only left--took our military out that gave, I think, some backbone, at least had some conversations with the Iraqi military, because my sons did some train-up with the Iraqis.    And there was some brigades that were outstanding combat units, and there were others that were terribly lacking. But then when we pulled out the political engagement, it just seems like that was a huge mistake that compounded it because we didn't have troops there to back up, or at least on a training end of it, assist the Iraqis.    I mean, we saw that starting to occur, I think, in Afghanistan. The President has since changed that. And I think you hit on this--and I will get to a question here in a second, but, Mr. Ambassador, I believe that a question was asked whether or not we have a strategy today to both of you.    Do you see us having a coherent strategy today from the President to outlining, A, what we expect to accomplish; and then B, how we are going to accomplish that? Do you see a strategy today that is articulable that we are having a hard time with? Do you see that today with the President?    Ambassador Crocker. I would be just blunt: No, I don't see a comprehensive strategy. And what I was trying to get at in response to Congressman O'Rourke's very good question, you know, maybe it was okay--I don't think it was, but maybe it was--before November 13; it is definitely not okay today. We need that strategy, and the President has to set the course.</t>
   </si>
   <si>
@@ -277,6 +352,12 @@
     <t>412632</t>
   </si>
   <si>
+    <t>Moulton</t>
+  </si>
+  <si>
+    <t>Seth</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Moulton. Thank you, Mr. Chairman.    Thank you, gentlemen, both, for joining us here today.    Ambassador, I was a special assistant to General Petraeus when you were serving in Iraq. And although I was actually out in the field, I reported directly to him, and I can't tell you what a difference it made, the confidence that you and he brought to the troops on the ground with your leadership. So thank you especially for that.    I share your view that the center of gravity here is Iraq with the Islamic State. That is where they were able to dramatically expand their territory and influence. And I also share your view that it is our political withdrawal from the Iraqi Government that essentially set the conditions for them to expand.    I would like to hear from both of you, how, at this point, we should reestablish control or influence in the Iraqi Government?    Ambassador Crocker. Well, it is a whole lot harder to regain influence once you have lost it than to maintain it when you have got it, but we must make this effort, in my view. And I have given you my initial thought on this: To show we are serious, you send America's top diplomat. And it is not an overnighter. I mean, it is days.</t>
   </si>
   <si>
@@ -322,6 +403,12 @@
     <t>412611</t>
   </si>
   <si>
+    <t>McSally</t>
+  </si>
+  <si>
+    <t>Martha</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. McSally. Thank you, Mr. Chairman.    Thank you, gentlemen, for your testimony.    I was in the Middle East in May, en route to Afghanistan. We stopped in Kuwait and Qatar, met with the joint task force leadership, and we were at the air operation center, which I have spent time there myself. And they basically told us that, you know, we have got them on the defense, and 2 weeks later, Ramadi fell. And I am sort of simplifying our long conversations.    And then last Friday, the President said, we have got them contained, you know, right before the Paris attack. So clearly, you know, we have got gaps in intelligence and information.    Just, Mr. McLaughlin, with all your experience, what can we do in order to close some of those gaps and, you know, specifically as we are looking at a whole-of-government approach trying to choke off their resources, like what else can we do to build capability growing in the intelligence? Are there other things we can do short term? Long term? Clearly we have gaps.</t>
   </si>
   <si>
@@ -340,6 +427,12 @@
     <t>412199</t>
   </si>
   <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>Henry</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Johnson. Thank you.    Ambassador Crocker, you see no strategy. But I see a strategy working with coalition partners and local partners like the Kurdish forces and the Syrian Arabs to deal with the ground issue, which has resulted in about 25 percent of the area that ISIL covered having been recovered. I see a strategy of working with the Turks to secure the Turkish border, to prevent the revolving door of radicalized terrorists in and out of Syria.    I see a strategy of working to cut off ISIL's financing. I see a strategy of working to disrupt and expose the messaging that ISIL uses to radicalize and recruit terrorists. I see a strategy of working to stabilize the areas that have been liberated from ISIL control. I see addressing the issue of air power for the last year in both Iraq and Syria.    That is a strategy. That strategy is being tweaked as events occur. So I think it is unfair to say that there is no strategy. I think there is clearly a strategy. And another strategy that has been employed is to protect our homeland from events such as that which happened in Paris last Friday the 13th. And that is what Americans fear the most is an attack here on the homeland.    And what I hear you gentlemen in unison with an old strategy, that, quite frankly, contributed to us being at this point where we are now, with the ill-fated invasion of Iraq as a response to 9/11, you would have us do the same thing now, go into Syria with a no-fly zone, or a safe zone, as you call it, Mr. McLaughlin, but what it is is actually a no-fly zone.    And then both of you argued that the U.S. should lead a multilateral ground invasion, both in Iraq and Syria, but you don't have an end game. You don't tell us how long we are going to be there, how much money it is going to take, how many of Americans' sons and daughters will have to be killed and maimed in an endless war on foreign shores, us occupying basically. I mean, that is what it would result in.    And those two tactics, or those two strategies, ground war and air no-fly zone, do absolutely nothing to stop the development of homegrown radicalized terrorists, which is what most Americans fear. They fear a terrorist attack here in the U.S. How will what you propose prevent or staunch the growth of homeland terrorists that would strike Americans here on American soil? How would a ground war, thousands of miles away from here, stop that?</t>
   </si>
   <si>
@@ -401,6 +494,12 @@
   </si>
   <si>
     <t>412191</t>
+  </si>
+  <si>
+    <t>Lamborn</t>
+  </si>
+  <si>
+    <t>Doug</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Lamborn. Thank you for indulging my last question here. Thank you for your service, both of you, very distinguished careers serving our country in various ways. I appreciate that. And maybe you have already addressed this. I have been in and out with other committees going on and so on. But I want to ask about the tilt by this administration toward Iran. I asked John Kerry this one time. He denied that there was any tilt toward Iran. And yet all of our Gulf State Arab partners, allies, friends, the Israelis, they are convinced that there is such a tilt.    So, even if it is not reality, it is perception at least. I think it is reality. Can you comment on that? Has there been a tilt? And if so, shouldn't the administration just come out and say that and that they want to see Iran become a regional player and welcomed back into the community of nations and be a good guy even though there is no evidence that they are going to actually pull that off? I am just very, very concerned about this direction. It seems like a huge gamble to me. But am I reading this wrong? Or is there actually a tilt going on toward Iran?    Ambassador Crocker. It is a very important question. I do not perceive a significant tilt by us toward Iran. But perception is reality. And nowhere is that more the case than the Middle East. And there is a perception that there is such a tilt, which is why I have emphasized in my written testimony, in my remarks today, we have got to make it absolutely clear that our goals and Iran's goals in the region could not be more opposite. That the nuclear agreement in no way implies that we are a party to Iran's nefarious policies and actions throughout the region. It is 20 years ago this month that a great world leader was assassinated, Yitzhak Rabin.    Before he was killed, he said something that I have always remembered. And it was about--it was the time he was negotiating with the Palestinians post-Oslo. He said, ``I will negotiate peace as though there were no terrorism, and I will fight terrorism as though there were no peace negotiations.'' Well, we need to fight Iranian-backed terrorism as though there were no nuclear agreement. Because that is what the Iranians are doing. They didn't let that agreement, which they wanted, get in the way of all the nefarious things they are doing in Syria and Iraq, and, to a degree, in Yemen. Well, we need to meet them with the same determination to confront them where they are acting as a very malign player.    You know, that doesn't jeopardize the agreement because it doesn't jeopardize the agreement for them as they carry out these malign actions. But I feel very strongly we have got to assert ourselves against them, both because of the damage they are doing, but also because of the perception in the eyes of our Sunni friends.</t>
@@ -767,7 +866,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H110"/>
+  <dimension ref="A1:I110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -775,7 +874,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -797,2621 +896,3101 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s"/>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s"/>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s"/>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
         <v>13</v>
       </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G12" t="s">
+        <v>28</v>
+      </c>
       <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G13" t="s">
+        <v>28</v>
+      </c>
       <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G14" t="s">
+        <v>28</v>
+      </c>
       <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G15" t="s">
+        <v>28</v>
+      </c>
       <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>34</v>
+      </c>
+      <c r="G16" t="s">
+        <v>35</v>
+      </c>
       <c r="H16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>34</v>
+      </c>
+      <c r="G17" t="s">
+        <v>35</v>
+      </c>
       <c r="H17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>34</v>
+      </c>
+      <c r="G18" t="s">
+        <v>35</v>
+      </c>
       <c r="H18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>34</v>
+      </c>
+      <c r="G20" t="s">
+        <v>35</v>
+      </c>
       <c r="H20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>34</v>
+      </c>
+      <c r="G21" t="s">
+        <v>35</v>
+      </c>
       <c r="H21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>43</v>
+      </c>
+      <c r="G22" t="s">
+        <v>44</v>
+      </c>
       <c r="H22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>45</v>
+      </c>
+      <c r="I22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>43</v>
+      </c>
+      <c r="G23" t="s">
+        <v>44</v>
+      </c>
       <c r="H23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>45</v>
+      </c>
+      <c r="I23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>43</v>
+      </c>
+      <c r="G24" t="s">
+        <v>44</v>
+      </c>
       <c r="H24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>45</v>
+      </c>
+      <c r="I24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>49</v>
+      </c>
+      <c r="G25" t="s">
+        <v>50</v>
+      </c>
       <c r="H25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="I25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G26" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>39</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>49</v>
+      </c>
+      <c r="G27" t="s">
+        <v>50</v>
+      </c>
       <c r="H27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="I27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>49</v>
+      </c>
+      <c r="G29" t="s">
+        <v>50</v>
+      </c>
       <c r="H29" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="I29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>45</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>57</v>
+      </c>
+      <c r="G30" t="s">
+        <v>58</v>
+      </c>
       <c r="H30" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>59</v>
+      </c>
+      <c r="I30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>45</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>57</v>
+      </c>
+      <c r="G31" t="s">
+        <v>58</v>
+      </c>
       <c r="H31" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>59</v>
+      </c>
+      <c r="I31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>48</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>62</v>
+      </c>
+      <c r="G32" t="s">
+        <v>63</v>
+      </c>
       <c r="H32" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>64</v>
+      </c>
+      <c r="I32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>48</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>62</v>
+      </c>
+      <c r="G33" t="s">
+        <v>63</v>
+      </c>
       <c r="H33" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>64</v>
+      </c>
+      <c r="I33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G34" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>48</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>62</v>
+      </c>
+      <c r="G35" t="s">
+        <v>63</v>
+      </c>
       <c r="H35" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>64</v>
+      </c>
+      <c r="I35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>48</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>62</v>
+      </c>
+      <c r="G37" t="s">
+        <v>63</v>
+      </c>
       <c r="H37" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>64</v>
+      </c>
+      <c r="I37" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>55</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="G38" t="s">
+        <v>72</v>
+      </c>
       <c r="H38" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="I38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>55</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="G39" t="s">
+        <v>72</v>
+      </c>
       <c r="H39" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="I39" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>55</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="G40" t="s">
+        <v>72</v>
+      </c>
       <c r="H40" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="I40" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>55</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="G41" t="s">
+        <v>72</v>
+      </c>
       <c r="H41" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="I41" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G42" t="s">
+        <v>78</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G43" t="s">
+        <v>78</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>62</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>81</v>
+      </c>
+      <c r="G44" t="s">
+        <v>82</v>
+      </c>
       <c r="H44" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I44" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G45" t="s">
+        <v>17</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>62</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>81</v>
+      </c>
+      <c r="G46" t="s">
+        <v>82</v>
+      </c>
       <c r="H46" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I46" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G47" t="s">
+        <v>17</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>62</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>81</v>
+      </c>
+      <c r="G48" t="s">
+        <v>82</v>
+      </c>
       <c r="H48" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I48" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G49" t="s">
+        <v>17</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>62</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>81</v>
+      </c>
+      <c r="G50" t="s">
+        <v>82</v>
+      </c>
       <c r="H50" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I50" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G51" t="s">
+        <v>17</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>62</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>81</v>
+      </c>
+      <c r="G52" t="s">
+        <v>82</v>
+      </c>
       <c r="H52" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I52" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>62</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>81</v>
+      </c>
+      <c r="G53" t="s">
+        <v>82</v>
+      </c>
       <c r="H53" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I53" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>13</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G54" t="s">
+        <v>17</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>62</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>81</v>
+      </c>
+      <c r="G55" t="s">
+        <v>82</v>
+      </c>
       <c r="H55" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I55" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>74</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G56" t="s">
+        <v>96</v>
+      </c>
       <c r="H56" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I56" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>74</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G57" t="s">
+        <v>96</v>
+      </c>
       <c r="H57" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I57" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>13</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G58" t="s">
+        <v>17</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>74</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G59" t="s">
+        <v>96</v>
+      </c>
       <c r="H59" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I59" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>74</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G60" t="s">
+        <v>96</v>
+      </c>
       <c r="H60" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I60" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>74</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G61" t="s">
+        <v>96</v>
+      </c>
       <c r="H61" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I61" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>81</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G62" t="s">
+        <v>105</v>
+      </c>
       <c r="H62" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I62" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>81</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G63" t="s">
+        <v>105</v>
+      </c>
       <c r="H63" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I63" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>81</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G64" t="s">
+        <v>105</v>
+      </c>
       <c r="H64" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I64" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>81</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G65" t="s">
+        <v>105</v>
+      </c>
       <c r="H65" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I65" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>86</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="G66" t="s">
+        <v>112</v>
+      </c>
       <c r="H66" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>113</v>
+      </c>
+      <c r="I66" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>86</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="G67" t="s">
+        <v>112</v>
+      </c>
       <c r="H67" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>113</v>
+      </c>
+      <c r="I67" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>86</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="G68" t="s">
+        <v>112</v>
+      </c>
       <c r="H68" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>113</v>
+      </c>
+      <c r="I68" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>86</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="G69" t="s">
+        <v>112</v>
+      </c>
       <c r="H69" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>113</v>
+      </c>
+      <c r="I69" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>13</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G70" t="s">
+        <v>17</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>86</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="G71" t="s">
+        <v>112</v>
+      </c>
       <c r="H71" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>113</v>
+      </c>
+      <c r="I71" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>86</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="G72" t="s">
+        <v>112</v>
+      </c>
       <c r="H72" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>113</v>
+      </c>
+      <c r="I72" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>13</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G73" t="s">
+        <v>17</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>86</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="G74" t="s">
+        <v>112</v>
+      </c>
       <c r="H74" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>113</v>
+      </c>
+      <c r="I74" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>13</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G75" t="s">
+        <v>17</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>86</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="G76" t="s">
+        <v>112</v>
+      </c>
       <c r="H76" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>113</v>
+      </c>
+      <c r="I76" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>86</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="G77" t="s">
+        <v>112</v>
+      </c>
       <c r="H77" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>113</v>
+      </c>
+      <c r="I77" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>13</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G78" t="s">
+        <v>17</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>86</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="G79" t="s">
+        <v>112</v>
+      </c>
       <c r="H79" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>113</v>
+      </c>
+      <c r="I79" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>101</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>128</v>
+      </c>
+      <c r="G80" t="s">
+        <v>129</v>
+      </c>
       <c r="H80" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>130</v>
+      </c>
+      <c r="I80" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>13</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G81" t="s">
+        <v>17</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>101</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>128</v>
+      </c>
+      <c r="G82" t="s">
+        <v>129</v>
+      </c>
       <c r="H82" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>130</v>
+      </c>
+      <c r="I82" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>101</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>128</v>
+      </c>
+      <c r="G83" t="s">
+        <v>129</v>
+      </c>
       <c r="H83" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>130</v>
+      </c>
+      <c r="I83" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>101</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>128</v>
+      </c>
+      <c r="G84" t="s">
+        <v>129</v>
+      </c>
       <c r="H84" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>130</v>
+      </c>
+      <c r="I84" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>107</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>136</v>
+      </c>
+      <c r="G85" t="s">
+        <v>137</v>
+      </c>
       <c r="H85" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>138</v>
+      </c>
+      <c r="I85" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>13</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G86" t="s">
+        <v>17</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>107</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>136</v>
+      </c>
+      <c r="G87" t="s">
+        <v>137</v>
+      </c>
       <c r="H87" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>138</v>
+      </c>
+      <c r="I87" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>13</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G88" t="s">
+        <v>17</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>107</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>136</v>
+      </c>
+      <c r="G89" t="s">
+        <v>137</v>
+      </c>
       <c r="H89" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>138</v>
+      </c>
+      <c r="I89" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>13</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G90" t="s">
+        <v>17</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>107</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>136</v>
+      </c>
+      <c r="G91" t="s">
+        <v>137</v>
+      </c>
       <c r="H91" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>138</v>
+      </c>
+      <c r="I91" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>13</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G92" t="s">
+        <v>17</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>107</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>136</v>
+      </c>
+      <c r="G93" t="s">
+        <v>137</v>
+      </c>
       <c r="H93" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>138</v>
+      </c>
+      <c r="I93" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>13</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G94" t="s">
+        <v>17</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>107</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>136</v>
+      </c>
+      <c r="G95" t="s">
+        <v>137</v>
+      </c>
       <c r="H95" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>138</v>
+      </c>
+      <c r="I95" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>13</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G96" t="s">
+        <v>17</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>107</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>136</v>
+      </c>
+      <c r="G97" t="s">
+        <v>137</v>
+      </c>
       <c r="H97" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>138</v>
+      </c>
+      <c r="I97" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>13</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G98" t="s">
+        <v>17</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>107</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>136</v>
+      </c>
+      <c r="G99" t="s">
+        <v>137</v>
+      </c>
       <c r="H99" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>138</v>
+      </c>
+      <c r="I99" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>13</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G100" t="s">
+        <v>78</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>13</v>
-      </c>
-      <c r="G101" t="s"/>
-      <c r="H101" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G101" t="s">
+        <v>78</v>
+      </c>
+      <c r="H101" t="s"/>
+      <c r="I101" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>74</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G102" t="s">
+        <v>96</v>
+      </c>
       <c r="H102" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I102" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>74</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G103" t="s">
+        <v>96</v>
+      </c>
       <c r="H103" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I103" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>13</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G104" t="s">
+        <v>17</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>128</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>159</v>
+      </c>
+      <c r="G105" t="s">
+        <v>160</v>
+      </c>
       <c r="H105" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>161</v>
+      </c>
+      <c r="I105" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>128</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>159</v>
+      </c>
+      <c r="G106" t="s">
+        <v>160</v>
+      </c>
       <c r="H106" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>161</v>
+      </c>
+      <c r="I106" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>13</v>
-      </c>
-      <c r="G107" t="s"/>
-      <c r="H107" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G107" t="s">
+        <v>17</v>
+      </c>
+      <c r="H107" t="s"/>
+      <c r="I107" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>128</v>
-      </c>
-      <c r="G108" t="s"/>
+        <v>159</v>
+      </c>
+      <c r="G108" t="s">
+        <v>160</v>
+      </c>
       <c r="H108" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>161</v>
+      </c>
+      <c r="I108" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>13</v>
-      </c>
-      <c r="G109" t="s"/>
-      <c r="H109" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G109" t="s">
+        <v>17</v>
+      </c>
+      <c r="H109" t="s"/>
+      <c r="I109" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>128</v>
-      </c>
-      <c r="G110" t="s"/>
+        <v>159</v>
+      </c>
+      <c r="G110" t="s">
+        <v>160</v>
+      </c>
       <c r="H110" t="s">
-        <v>134</v>
+        <v>161</v>
+      </c>
+      <c r="I110" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg97821.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97821.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="171">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400379</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Smith</t>
   </si>
   <si>
@@ -98,6 +104,9 @@
   </si>
   <si>
     <t>400137</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Forbes</t>
@@ -866,7 +875,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I110"/>
+  <dimension ref="A1:J110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -874,7 +883,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -899,3098 +908,3360 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s"/>
-      <c r="I3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s"/>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" t="s"/>
-      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="I4" t="s"/>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
         <v>16</v>
       </c>
-      <c r="G10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>29</v>
       </c>
-      <c r="I12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>27</v>
-      </c>
       <c r="G13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>29</v>
       </c>
-      <c r="I13" t="s">
+      <c r="G14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" t="s">
-        <v>29</v>
       </c>
       <c r="I14" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="J16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G17" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H17" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="J17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I18" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G20" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="J20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G21" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H21" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="J21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G22" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H22" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="J22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G23" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H23" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="J23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G24" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H24" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="J24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G25" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H25" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" t="s">
-        <v>17</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>19</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G27" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H27" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I27" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="J27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" t="s">
-        <v>17</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>19</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G29" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H29" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I29" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G30" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="H30" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I30" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>62</v>
+      </c>
+      <c r="J30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G31" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="H31" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I31" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>62</v>
+      </c>
+      <c r="J31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G32" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="H32" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I32" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>67</v>
+      </c>
+      <c r="J32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G33" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="H33" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I33" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>67</v>
+      </c>
+      <c r="J33" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34" t="s">
-        <v>17</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>19</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G35" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="H35" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I35" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>67</v>
+      </c>
+      <c r="J35" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" t="s">
-        <v>17</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>19</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G37" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="H37" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I37" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>67</v>
+      </c>
+      <c r="J37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G38" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="H38" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>76</v>
+      </c>
+      <c r="J38" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G39" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="H39" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I39" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>76</v>
+      </c>
+      <c r="J39" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G40" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="H40" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I40" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="41" spans="1:9">
+      <c r="J40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G41" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="H41" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I41" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>76</v>
+      </c>
+      <c r="J41" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" t="s">
-        <v>78</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>81</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" t="s">
-        <v>78</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>81</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G44" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="H44" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I44" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J44" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" t="s">
-        <v>17</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>19</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G46" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="H46" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I46" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="47" spans="1:9">
+      <c r="J46" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>16</v>
-      </c>
-      <c r="G47" t="s">
-        <v>17</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>19</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G48" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="H48" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I48" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J48" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" t="s">
-        <v>17</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>19</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G50" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="H50" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I50" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J50" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G51" t="s">
-        <v>17</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>19</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G52" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="H52" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I52" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J52" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G53" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="H53" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I53" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J53" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>16</v>
-      </c>
-      <c r="G54" t="s">
-        <v>17</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>19</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G55" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="H55" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I55" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G56" t="s">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="H56" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I56" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>100</v>
+      </c>
+      <c r="J56" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G57" t="s">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="H57" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I57" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>100</v>
+      </c>
+      <c r="J57" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>16</v>
-      </c>
-      <c r="G58" t="s">
-        <v>17</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>19</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G59" t="s">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="H59" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I59" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>100</v>
+      </c>
+      <c r="J59" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G60" t="s">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="H60" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I60" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>100</v>
+      </c>
+      <c r="J60" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G61" t="s">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="H61" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I61" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>100</v>
+      </c>
+      <c r="J61" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G62" t="s">
-        <v>105</v>
+        <v>30</v>
       </c>
       <c r="H62" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I62" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J62" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G63" t="s">
-        <v>105</v>
+        <v>30</v>
       </c>
       <c r="H63" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I63" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J63" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G64" t="s">
-        <v>105</v>
+        <v>30</v>
       </c>
       <c r="H64" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I64" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="65" spans="1:9">
+      <c r="J64" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G65" t="s">
-        <v>105</v>
+        <v>30</v>
       </c>
       <c r="H65" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I65" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J65" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G66" t="s">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="H66" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I66" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>116</v>
+      </c>
+      <c r="J66" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G67" t="s">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="H67" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I67" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>116</v>
+      </c>
+      <c r="J67" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G68" t="s">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="H68" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I68" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="69" spans="1:9">
+      <c r="J68" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G69" t="s">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="H69" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I69" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>116</v>
+      </c>
+      <c r="J69" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>16</v>
-      </c>
-      <c r="G70" t="s">
-        <v>17</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>19</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G71" t="s">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="H71" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I71" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>116</v>
+      </c>
+      <c r="J71" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G72" t="s">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="H72" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I72" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>116</v>
+      </c>
+      <c r="J72" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>16</v>
-      </c>
-      <c r="G73" t="s">
-        <v>17</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>19</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G74" t="s">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="H74" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I74" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>116</v>
+      </c>
+      <c r="J74" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>16</v>
-      </c>
-      <c r="G75" t="s">
-        <v>17</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>19</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G76" t="s">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="H76" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I76" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>116</v>
+      </c>
+      <c r="J76" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G77" t="s">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="H77" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I77" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>116</v>
+      </c>
+      <c r="J77" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>16</v>
-      </c>
-      <c r="G78" t="s">
-        <v>17</v>
-      </c>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
+        <v>19</v>
+      </c>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G79" t="s">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="H79" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I79" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>116</v>
+      </c>
+      <c r="J79" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G80" t="s">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="H80" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I80" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>133</v>
+      </c>
+      <c r="J80" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>16</v>
-      </c>
-      <c r="G81" t="s">
-        <v>17</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>19</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G82" t="s">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="H82" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I82" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="83" spans="1:9">
+      <c r="J82" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G83" t="s">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="H83" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I83" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>133</v>
+      </c>
+      <c r="J83" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G84" t="s">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="H84" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I84" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>133</v>
+      </c>
+      <c r="J84" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G85" t="s">
-        <v>137</v>
+        <v>30</v>
       </c>
       <c r="H85" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I85" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>141</v>
+      </c>
+      <c r="J85" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>16</v>
-      </c>
-      <c r="G86" t="s">
-        <v>17</v>
-      </c>
-      <c r="H86" t="s"/>
-      <c r="I86" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
+        <v>19</v>
+      </c>
+      <c r="I86" t="s"/>
+      <c r="J86" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G87" t="s">
-        <v>137</v>
+        <v>30</v>
       </c>
       <c r="H87" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I87" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="88" spans="1:9">
+      <c r="J87" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>16</v>
-      </c>
-      <c r="G88" t="s">
-        <v>17</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>19</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G89" t="s">
-        <v>137</v>
+        <v>30</v>
       </c>
       <c r="H89" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I89" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>141</v>
+      </c>
+      <c r="J89" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>16</v>
-      </c>
-      <c r="G90" t="s">
-        <v>17</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>19</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G91" t="s">
-        <v>137</v>
+        <v>30</v>
       </c>
       <c r="H91" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I91" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>141</v>
+      </c>
+      <c r="J91" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>16</v>
-      </c>
-      <c r="G92" t="s">
-        <v>17</v>
-      </c>
-      <c r="H92" t="s"/>
-      <c r="I92" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>19</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G93" t="s">
-        <v>137</v>
+        <v>30</v>
       </c>
       <c r="H93" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I93" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>141</v>
+      </c>
+      <c r="J93" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>16</v>
-      </c>
-      <c r="G94" t="s">
-        <v>17</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>19</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G95" t="s">
-        <v>137</v>
+        <v>30</v>
       </c>
       <c r="H95" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I95" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>141</v>
+      </c>
+      <c r="J95" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>16</v>
-      </c>
-      <c r="G96" t="s">
-        <v>17</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>19</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G97" t="s">
-        <v>137</v>
+        <v>30</v>
       </c>
       <c r="H97" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I97" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>141</v>
+      </c>
+      <c r="J97" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>16</v>
-      </c>
-      <c r="G98" t="s">
-        <v>17</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>19</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G99" t="s">
-        <v>137</v>
+        <v>30</v>
       </c>
       <c r="H99" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I99" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>141</v>
+      </c>
+      <c r="J99" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>16</v>
-      </c>
-      <c r="G100" t="s">
-        <v>78</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>81</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>16</v>
-      </c>
-      <c r="G101" t="s">
-        <v>78</v>
-      </c>
-      <c r="H101" t="s"/>
-      <c r="I101" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G101" t="s"/>
+      <c r="H101" t="s">
+        <v>81</v>
+      </c>
+      <c r="I101" t="s"/>
+      <c r="J101" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G102" t="s">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="H102" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I102" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>100</v>
+      </c>
+      <c r="J102" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G103" t="s">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="H103" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I103" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>100</v>
+      </c>
+      <c r="J103" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>16</v>
-      </c>
-      <c r="G104" t="s">
-        <v>17</v>
-      </c>
-      <c r="H104" t="s"/>
-      <c r="I104" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
+        <v>19</v>
+      </c>
+      <c r="I104" t="s"/>
+      <c r="J104" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G105" t="s">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="H105" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="I105" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>164</v>
+      </c>
+      <c r="J105" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G106" t="s">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="H106" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="I106" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>164</v>
+      </c>
+      <c r="J106" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>16</v>
-      </c>
-      <c r="G107" t="s">
-        <v>17</v>
-      </c>
-      <c r="H107" t="s"/>
-      <c r="I107" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G107" t="s"/>
+      <c r="H107" t="s">
+        <v>19</v>
+      </c>
+      <c r="I107" t="s"/>
+      <c r="J107" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G108" t="s">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="H108" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="I108" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>164</v>
+      </c>
+      <c r="J108" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>16</v>
-      </c>
-      <c r="G109" t="s">
-        <v>17</v>
-      </c>
-      <c r="H109" t="s"/>
-      <c r="I109" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G109" t="s"/>
+      <c r="H109" t="s">
+        <v>19</v>
+      </c>
+      <c r="I109" t="s"/>
+      <c r="J109" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G110" t="s">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="H110" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="I110" t="s">
-        <v>167</v>
+        <v>164</v>
+      </c>
+      <c r="J110" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
